--- a/0ASDoQ_SystemDocumentationQualityModel_v2.0a.xlsx
+++ b/0ASDoQ_SystemDocumentationQualityModel_v2.0a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@work\NCES\Active\P15999：ASDoQ\研究開発\R99：文書品質\文書品質モデルGit\ASDoQ_DocQModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D356CC2-8C9E-488F-9BCA-DB90F8521C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5B94BD-8C0A-4FD5-AED0-FE932E7CEDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="1356" windowWidth="39780" windowHeight="21804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24765" yWindow="3825" windowWidth="27750" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="品質特性・副特性・測定項目（例・違反例を含む）" sheetId="1" r:id="rId1"/>
@@ -35,52 +35,6 @@
     <t>品質特性</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>目的適合性</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS PGothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>記述内容が、目的達成のために必要十分であるかの度合い</t>
-    </r>
-  </si>
-  <si>
     <t>目的明示性</t>
   </si>
   <si>
@@ -350,9 +304,6 @@
       </rPr>
       <t>していない。開発が滞っている状況だけを伝え、相手に求めることを明示していない。</t>
     </r>
-  </si>
-  <si>
-    <t>保守性</t>
   </si>
   <si>
     <t>記述内容を利用維持できる度合い</t>
@@ -1670,10 +1621,6 @@
     <t>係り受けが正しい（違反の例：係り先が存在しない）</t>
   </si>
   <si>
-    <t xml:space="preserve">記法適合性
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1879,16 +1826,6 @@
     <t>はっきりと書き記す場合に使用する</t>
   </si>
   <si>
-    <t>記述内容を理解しやすく表現している度合い
-　　</t>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
-    <t>理解容易性
-　　　　　　　　　</t>
-    <phoneticPr fontId="22"/>
-  </si>
-  <si>
     <t>システム開発文書</t>
     <rPh sb="4" eb="6">
       <t>カイハツ</t>
@@ -1896,11 +1833,11 @@
     <rPh sb="6" eb="8">
       <t>ブンショ</t>
     </rPh>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>すべての品質特性と副特性に共通</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <r>
@@ -2029,11 +1966,11 @@
       </rPr>
       <t>Business Rule Management System</t>
     </r>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>一意に解釈できる度合い</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>システム開発の工程で生成される成果物はすべて「システム開発文書」として扱う。
@@ -2050,44 +1987,68 @@
     <rPh sb="80" eb="82">
       <t>ブンショ</t>
     </rPh>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>品質特性の説明</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>品質副特性</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>品質副特性の説明</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>測定項目</t>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>例</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
   </si>
   <si>
     <t>違反例</t>
     <rPh sb="0" eb="3">
       <t>イハンレイ</t>
     </rPh>
-    <phoneticPr fontId="22"/>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>保守性</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>目的適合性</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>記述内容が、目的達成のために必要十分であるかの度合い</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>記述内容を理解しやすく表現している度合い</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>記法適合性</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>理解容易性</t>
+    <phoneticPr fontId="21"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2122,13 +2083,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="MS PGothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2600,7 +2554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2610,19 +2564,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2637,13 +2591,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2652,34 +2606,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2688,71 +2642,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2776,7 +2730,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2788,10 +2742,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2803,25 +2757,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3046,21 +2997,21 @@
   <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="70" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.77734375" customWidth="1"/>
-    <col min="5" max="5" width="65.44140625" customWidth="1"/>
-    <col min="6" max="6" width="94.21875" customWidth="1"/>
-    <col min="7" max="7" width="91.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" customWidth="1"/>
+    <col min="6" max="6" width="94.28515625" customWidth="1"/>
+    <col min="7" max="7" width="91.7109375" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" customWidth="1"/>
+    <col min="9" max="11" width="8.85546875" customWidth="1"/>
     <col min="12" max="24" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3069,22 +3020,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3107,23 +3058,23 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30.75" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="D2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="F2" s="24" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
@@ -3146,16 +3097,16 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="29.4" customHeight="1">
+    <row r="3" spans="1:26" ht="29.45" customHeight="1">
       <c r="A3" s="56"/>
       <c r="B3" s="61"/>
       <c r="C3" s="56"/>
       <c r="D3" s="65"/>
       <c r="E3" s="28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
@@ -3184,7 +3135,7 @@
       <c r="C4" s="56"/>
       <c r="D4" s="65"/>
       <c r="E4" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="3"/>
@@ -3214,10 +3165,10 @@
       <c r="C5" s="56"/>
       <c r="D5" s="65"/>
       <c r="E5" s="28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
@@ -3240,16 +3191,16 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="70.8" customHeight="1">
+    <row r="6" spans="1:26" ht="70.900000000000006" customHeight="1">
       <c r="A6" s="56"/>
       <c r="B6" s="61"/>
       <c r="C6" s="57"/>
       <c r="D6" s="66"/>
       <c r="E6" s="26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
@@ -3272,23 +3223,23 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="46.2" customHeight="1">
+    <row r="7" spans="1:26" ht="46.15" customHeight="1">
       <c r="A7" s="56"/>
       <c r="B7" s="61"/>
       <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="G7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3310,24 +3261,24 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="32.4" customHeight="1">
+    <row r="8" spans="1:26" ht="32.450000000000003" customHeight="1">
       <c r="A8" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="E8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="F8" s="24" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>24</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
@@ -3356,10 +3307,10 @@
       <c r="C9" s="61"/>
       <c r="D9" s="65"/>
       <c r="E9" s="26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
@@ -3382,16 +3333,16 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="32.4" customHeight="1">
+    <row r="10" spans="1:26" ht="32.450000000000003" customHeight="1">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="62"/>
       <c r="D10" s="66"/>
       <c r="E10" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
@@ -3418,19 +3369,19 @@
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="G11" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3458,10 +3409,10 @@
       <c r="C12" s="56"/>
       <c r="D12" s="65"/>
       <c r="E12" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2"/>
@@ -3490,10 +3441,10 @@
       <c r="C13" s="57"/>
       <c r="D13" s="66"/>
       <c r="E13" s="29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2"/>
@@ -3518,19 +3469,19 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="E14" s="27" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>42</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="3"/>
@@ -3560,7 +3511,7 @@
       <c r="C15" s="61"/>
       <c r="D15" s="65"/>
       <c r="E15" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="3"/>
@@ -3590,7 +3541,7 @@
       <c r="C16" s="61"/>
       <c r="D16" s="65"/>
       <c r="E16" s="26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="3"/>
@@ -3620,10 +3571,10 @@
       <c r="C17" s="62"/>
       <c r="D17" s="66"/>
       <c r="E17" s="26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
@@ -3650,13 +3601,13 @@
       <c r="A18" s="56"/>
       <c r="B18" s="56"/>
       <c r="C18" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="3"/>
@@ -3686,7 +3637,7 @@
       <c r="C19" s="61"/>
       <c r="D19" s="65"/>
       <c r="E19" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="3"/>
@@ -3710,16 +3661,16 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="22.8" customHeight="1">
+    <row r="20" spans="1:26" ht="22.9" customHeight="1">
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
       <c r="C20" s="61"/>
       <c r="D20" s="65"/>
       <c r="E20" s="27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="2"/>
@@ -3742,19 +3693,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="31.8" customHeight="1">
+    <row r="21" spans="1:26" ht="31.9" customHeight="1">
       <c r="A21" s="56"/>
       <c r="B21" s="56"/>
       <c r="C21" s="61"/>
       <c r="D21" s="65"/>
       <c r="E21" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -3782,7 +3733,7 @@
       <c r="C22" s="61"/>
       <c r="D22" s="65"/>
       <c r="E22" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="3"/>
@@ -3812,7 +3763,7 @@
       <c r="C23" s="61"/>
       <c r="D23" s="66"/>
       <c r="E23" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="3"/>
@@ -3836,17 +3787,17 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="23.4" customHeight="1">
+    <row r="24" spans="1:26" ht="23.45" customHeight="1">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
       <c r="C24" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="D24" s="70" t="s">
+        <v>56</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="7"/>
@@ -3870,13 +3821,13 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="19.8" customHeight="1">
+    <row r="25" spans="1:26" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="56"/>
       <c r="B25" s="57"/>
       <c r="C25" s="61"/>
       <c r="D25" s="66"/>
       <c r="E25" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="7"/>
@@ -3900,27 +3851,27 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="212.4" customHeight="1">
+    <row r="26" spans="1:26" ht="212.45" customHeight="1">
       <c r="A26" s="55" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C26" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3948,11 +3899,11 @@
       <c r="C27" s="56"/>
       <c r="D27" s="65"/>
       <c r="E27" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -3980,11 +3931,11 @@
       <c r="C28" s="56"/>
       <c r="D28" s="65"/>
       <c r="E28" s="27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -4006,19 +3957,19 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="83.4" customHeight="1">
+    <row r="29" spans="1:26" ht="83.45" customHeight="1">
       <c r="A29" s="56"/>
       <c r="B29" s="61"/>
       <c r="C29" s="56"/>
       <c r="D29" s="65"/>
       <c r="E29" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -4040,19 +3991,19 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="22.8" customHeight="1">
+    <row r="30" spans="1:26" ht="22.9" customHeight="1">
       <c r="A30" s="56"/>
       <c r="B30" s="61"/>
       <c r="C30" s="56"/>
       <c r="D30" s="65"/>
       <c r="E30" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -4080,13 +4031,13 @@
       <c r="C31" s="58"/>
       <c r="D31" s="66"/>
       <c r="E31" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -4108,23 +4059,23 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="43.2" customHeight="1">
+    <row r="32" spans="1:26" ht="43.15" customHeight="1">
       <c r="A32" s="56"/>
       <c r="B32" s="61"/>
       <c r="C32" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="G32" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -4146,19 +4097,19 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="19.2" customHeight="1">
+    <row r="33" spans="1:26" ht="19.149999999999999" customHeight="1">
       <c r="A33" s="56"/>
       <c r="B33" s="61"/>
       <c r="C33" s="56"/>
       <c r="D33" s="65"/>
       <c r="E33" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -4186,13 +4137,13 @@
       <c r="C34" s="56"/>
       <c r="D34" s="65"/>
       <c r="E34" s="32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -4220,10 +4171,10 @@
       <c r="C35" s="56"/>
       <c r="D35" s="65"/>
       <c r="E35" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="2"/>
@@ -4246,19 +4197,19 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="97.8" customHeight="1">
+    <row r="36" spans="1:26" ht="97.9" customHeight="1">
       <c r="A36" s="56"/>
       <c r="B36" s="61"/>
       <c r="C36" s="57"/>
       <c r="D36" s="66"/>
       <c r="E36" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -4280,20 +4231,20 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="70.8" customHeight="1">
+    <row r="37" spans="1:26" ht="70.900000000000006" customHeight="1">
       <c r="A37" s="56"/>
       <c r="B37" s="61"/>
       <c r="C37" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>98</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="2"/>
@@ -4316,16 +4267,16 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="32.4" customHeight="1">
+    <row r="38" spans="1:26" ht="32.450000000000003" customHeight="1">
       <c r="A38" s="57"/>
       <c r="B38" s="62"/>
       <c r="C38" s="57"/>
       <c r="D38" s="66"/>
       <c r="E38" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="2"/>
@@ -4350,19 +4301,19 @@
     </row>
     <row r="39" spans="1:26" ht="22.5" customHeight="1">
       <c r="A39" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="E39" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>105</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="3"/>
@@ -4386,16 +4337,16 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="127.2" customHeight="1">
+    <row r="40" spans="1:26" ht="127.15" customHeight="1">
       <c r="A40" s="56"/>
       <c r="B40" s="56"/>
       <c r="C40" s="56"/>
       <c r="D40" s="65"/>
       <c r="E40" s="33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="2"/>
@@ -4418,19 +4369,19 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="29.4" customHeight="1">
+    <row r="41" spans="1:26" ht="29.45" customHeight="1">
       <c r="A41" s="56"/>
       <c r="B41" s="56"/>
       <c r="C41" s="56"/>
       <c r="D41" s="65"/>
       <c r="E41" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -4458,7 +4409,7 @@
       <c r="C42" s="57"/>
       <c r="D42" s="66"/>
       <c r="E42" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="3"/>
@@ -4486,16 +4437,16 @@
       <c r="A43" s="56"/>
       <c r="B43" s="56"/>
       <c r="C43" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="D43" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2"/>
@@ -4524,7 +4475,7 @@
       <c r="C44" s="56"/>
       <c r="D44" s="65"/>
       <c r="E44" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="3"/>
@@ -4548,19 +4499,19 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="34.200000000000003" customHeight="1">
+    <row r="45" spans="1:26" ht="34.15" customHeight="1">
       <c r="A45" s="56"/>
       <c r="B45" s="56"/>
       <c r="C45" s="56"/>
       <c r="D45" s="65"/>
       <c r="E45" s="32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -4582,16 +4533,16 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="31.8" customHeight="1">
+    <row r="46" spans="1:26" ht="31.9" customHeight="1">
       <c r="A46" s="56"/>
       <c r="B46" s="56"/>
       <c r="C46" s="56"/>
       <c r="D46" s="65"/>
       <c r="E46" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="2"/>
@@ -4614,16 +4565,16 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="56.4" customHeight="1">
+    <row r="47" spans="1:26" ht="56.45" customHeight="1">
       <c r="A47" s="56"/>
       <c r="B47" s="56"/>
       <c r="C47" s="56"/>
       <c r="D47" s="65"/>
       <c r="E47" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="2"/>
@@ -4646,19 +4597,19 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="29.4" customHeight="1">
+    <row r="48" spans="1:26" ht="29.45" customHeight="1">
       <c r="A48" s="56"/>
       <c r="B48" s="56"/>
       <c r="C48" s="57"/>
       <c r="D48" s="66"/>
       <c r="E48" s="32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -4680,20 +4631,20 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="28.2" customHeight="1">
+    <row r="49" spans="1:26" ht="28.15" customHeight="1">
       <c r="A49" s="56"/>
       <c r="B49" s="56"/>
       <c r="C49" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="D49" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="12"/>
@@ -4716,17 +4667,17 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
     </row>
-    <row r="50" spans="1:26" ht="16.2" customHeight="1">
+    <row r="50" spans="1:26" ht="16.149999999999999" customHeight="1">
       <c r="A50" s="56"/>
       <c r="B50" s="56"/>
       <c r="C50" s="61"/>
       <c r="D50" s="65"/>
       <c r="E50" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -4754,10 +4705,10 @@
       <c r="C51" s="61"/>
       <c r="D51" s="65"/>
       <c r="E51" s="33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="2"/>
@@ -4780,17 +4731,17 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="17.399999999999999" customHeight="1">
+    <row r="52" spans="1:26" ht="17.45" customHeight="1">
       <c r="A52" s="56"/>
       <c r="B52" s="56"/>
       <c r="C52" s="61"/>
       <c r="D52" s="65"/>
       <c r="E52" s="33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -4818,10 +4769,10 @@
       <c r="C53" s="62"/>
       <c r="D53" s="66"/>
       <c r="E53" s="33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="2"/>
@@ -4844,25 +4795,25 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="17.399999999999999" customHeight="1">
+    <row r="54" spans="1:26" ht="17.45" customHeight="1">
       <c r="A54" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="E54" s="26" t="s">
         <v>140</v>
-      </c>
-      <c r="C54" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>143</v>
       </c>
       <c r="F54" s="41"/>
       <c r="G54" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -4890,11 +4841,11 @@
       <c r="C55" s="57"/>
       <c r="D55" s="66"/>
       <c r="E55" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F55" s="41"/>
       <c r="G55" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -4920,16 +4871,16 @@
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="D56" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>150</v>
       </c>
       <c r="G56" s="14"/>
       <c r="H56" s="1"/>
@@ -4952,19 +4903,19 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="34.200000000000003" customHeight="1">
+    <row r="57" spans="1:26" ht="34.15" customHeight="1">
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="53"/>
       <c r="D57" s="65"/>
       <c r="E57" s="35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4986,16 +4937,16 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="31.2" customHeight="1">
+    <row r="58" spans="1:26" ht="31.15" customHeight="1">
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="53"/>
       <c r="D58" s="65"/>
       <c r="E58" s="35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G58" s="14"/>
       <c r="H58" s="1"/>
@@ -5024,10 +4975,10 @@
       <c r="C59" s="53"/>
       <c r="D59" s="65"/>
       <c r="E59" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="1"/>
@@ -5050,16 +5001,16 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="109.2" customHeight="1">
+    <row r="60" spans="1:26" ht="109.15" customHeight="1">
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="54"/>
       <c r="D60" s="66"/>
       <c r="E60" s="35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G60" s="14"/>
       <c r="H60" s="1"/>
@@ -5086,16 +5037,16 @@
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="24" t="s">
         <v>160</v>
-      </c>
-      <c r="D61" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="F61" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="2"/>
@@ -5124,7 +5075,7 @@
       <c r="C62" s="56"/>
       <c r="D62" s="65"/>
       <c r="E62" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" s="3"/>
@@ -5154,7 +5105,7 @@
       <c r="C63" s="56"/>
       <c r="D63" s="65"/>
       <c r="E63" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="3"/>
@@ -5184,7 +5135,7 @@
       <c r="C64" s="56"/>
       <c r="D64" s="65"/>
       <c r="E64" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="3"/>
@@ -5214,7 +5165,7 @@
       <c r="C65" s="57"/>
       <c r="D65" s="66"/>
       <c r="E65" s="27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="3"/>
@@ -5242,13 +5193,13 @@
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="55" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="D66" s="64" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="3"/>
@@ -5278,7 +5229,7 @@
       <c r="C67" s="56"/>
       <c r="D67" s="65"/>
       <c r="E67" s="27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="3"/>
@@ -5308,7 +5259,7 @@
       <c r="C68" s="56"/>
       <c r="D68" s="65"/>
       <c r="E68" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="3"/>
@@ -5338,10 +5289,10 @@
       <c r="C69" s="57"/>
       <c r="D69" s="66"/>
       <c r="E69" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="2"/>
@@ -5411,7 +5362,7 @@
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="C54:C55"/>
   </mergeCells>
-  <phoneticPr fontId="22"/>
+  <phoneticPr fontId="21"/>
   <pageMargins left="0.23622047244094491" right="3.937007874015748E-2" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
   <pageSetup paperSize="8" scale="54" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
@@ -5437,171 +5388,171 @@
   </sheetPr>
   <dimension ref="A1:D991"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:AA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="88.33203125" customWidth="1"/>
-    <col min="4" max="4" width="107.33203125" customWidth="1"/>
+    <col min="3" max="3" width="88.28515625" customWidth="1"/>
+    <col min="4" max="4" width="107.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" customHeight="1">
       <c r="A1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="97.9" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="121.9" customHeight="1">
+      <c r="A3" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="97.8" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="121.8" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="58.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="111" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D6" s="20"/>
     </row>
-    <row r="7" spans="1:4" ht="43.95" customHeight="1">
+    <row r="7" spans="1:4" ht="43.9" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="72" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" ht="54.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37.15" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="B12" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="37.200000000000003" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>211</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -5711,3836 +5662,3836 @@
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
     </row>
-    <row r="35" spans="3:4" ht="14.4">
+    <row r="35" spans="3:4">
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
     </row>
-    <row r="36" spans="3:4" ht="14.4">
+    <row r="36" spans="3:4">
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
     </row>
-    <row r="37" spans="3:4" ht="14.4">
+    <row r="37" spans="3:4">
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="3:4" ht="14.4">
+    <row r="38" spans="3:4">
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="3:4" ht="14.4">
+    <row r="39" spans="3:4">
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="3:4" ht="14.4">
+    <row r="40" spans="3:4">
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="3:4" ht="14.4">
+    <row r="41" spans="3:4">
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
     </row>
-    <row r="42" spans="3:4" ht="14.4">
+    <row r="42" spans="3:4">
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="3:4" ht="14.4">
+    <row r="43" spans="3:4">
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="3:4" ht="14.4">
+    <row r="44" spans="3:4">
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="3:4" ht="14.4">
+    <row r="45" spans="3:4">
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="3:4" ht="14.4">
+    <row r="46" spans="3:4">
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="3:4" ht="14.4">
+    <row r="47" spans="3:4">
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
     </row>
-    <row r="48" spans="3:4" ht="14.4">
+    <row r="48" spans="3:4">
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
     </row>
-    <row r="49" spans="3:4" ht="14.4">
+    <row r="49" spans="3:4">
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="3:4" ht="14.4">
+    <row r="50" spans="3:4">
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="3:4" ht="14.4">
+    <row r="51" spans="3:4">
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="3:4" ht="14.4">
+    <row r="52" spans="3:4">
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
     </row>
-    <row r="53" spans="3:4" ht="14.4">
+    <row r="53" spans="3:4">
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
     </row>
-    <row r="54" spans="3:4" ht="14.4">
+    <row r="54" spans="3:4">
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
     </row>
-    <row r="55" spans="3:4" ht="14.4">
+    <row r="55" spans="3:4">
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
     </row>
-    <row r="56" spans="3:4" ht="14.4">
+    <row r="56" spans="3:4">
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
     </row>
-    <row r="57" spans="3:4" ht="14.4">
+    <row r="57" spans="3:4">
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="3:4" ht="14.4">
+    <row r="58" spans="3:4">
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
     </row>
-    <row r="59" spans="3:4" ht="14.4">
+    <row r="59" spans="3:4">
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
     </row>
-    <row r="60" spans="3:4" ht="14.4">
+    <row r="60" spans="3:4">
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="3:4" ht="14.4">
+    <row r="61" spans="3:4">
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
     </row>
-    <row r="62" spans="3:4" ht="14.4">
+    <row r="62" spans="3:4">
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
     </row>
-    <row r="63" spans="3:4" ht="14.4">
+    <row r="63" spans="3:4">
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
     </row>
-    <row r="64" spans="3:4" ht="14.4">
+    <row r="64" spans="3:4">
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
     </row>
-    <row r="65" spans="3:4" ht="14.4">
+    <row r="65" spans="3:4">
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
     </row>
-    <row r="66" spans="3:4" ht="14.4">
+    <row r="66" spans="3:4">
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
     </row>
-    <row r="67" spans="3:4" ht="14.4">
+    <row r="67" spans="3:4">
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
     </row>
-    <row r="68" spans="3:4" ht="14.4">
+    <row r="68" spans="3:4">
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
     </row>
-    <row r="69" spans="3:4" ht="14.4">
+    <row r="69" spans="3:4">
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
     </row>
-    <row r="70" spans="3:4" ht="14.4">
+    <row r="70" spans="3:4">
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
     </row>
-    <row r="71" spans="3:4" ht="14.4">
+    <row r="71" spans="3:4">
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
     </row>
-    <row r="72" spans="3:4" ht="14.4">
+    <row r="72" spans="3:4">
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
     </row>
-    <row r="73" spans="3:4" ht="14.4">
+    <row r="73" spans="3:4">
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
     </row>
-    <row r="74" spans="3:4" ht="14.4">
+    <row r="74" spans="3:4">
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
     </row>
-    <row r="75" spans="3:4" ht="14.4">
+    <row r="75" spans="3:4">
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
     </row>
-    <row r="76" spans="3:4" ht="14.4">
+    <row r="76" spans="3:4">
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
     </row>
-    <row r="77" spans="3:4" ht="14.4">
+    <row r="77" spans="3:4">
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
     </row>
-    <row r="78" spans="3:4" ht="14.4">
+    <row r="78" spans="3:4">
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
     </row>
-    <row r="79" spans="3:4" ht="14.4">
+    <row r="79" spans="3:4">
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
     </row>
-    <row r="80" spans="3:4" ht="14.4">
+    <row r="80" spans="3:4">
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
     </row>
-    <row r="81" spans="3:4" ht="14.4">
+    <row r="81" spans="3:4">
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
     </row>
-    <row r="82" spans="3:4" ht="14.4">
+    <row r="82" spans="3:4">
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
     </row>
-    <row r="83" spans="3:4" ht="14.4">
+    <row r="83" spans="3:4">
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
     </row>
-    <row r="84" spans="3:4" ht="14.4">
+    <row r="84" spans="3:4">
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
     </row>
-    <row r="85" spans="3:4" ht="14.4">
+    <row r="85" spans="3:4">
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
     </row>
-    <row r="86" spans="3:4" ht="14.4">
+    <row r="86" spans="3:4">
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
     </row>
-    <row r="87" spans="3:4" ht="14.4">
+    <row r="87" spans="3:4">
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="3:4" ht="14.4">
+    <row r="88" spans="3:4">
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
     </row>
-    <row r="89" spans="3:4" ht="14.4">
+    <row r="89" spans="3:4">
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
     </row>
-    <row r="90" spans="3:4" ht="14.4">
+    <row r="90" spans="3:4">
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
     </row>
-    <row r="91" spans="3:4" ht="14.4">
+    <row r="91" spans="3:4">
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
     </row>
-    <row r="92" spans="3:4" ht="14.4">
+    <row r="92" spans="3:4">
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
     </row>
-    <row r="93" spans="3:4" ht="14.4">
+    <row r="93" spans="3:4">
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
     </row>
-    <row r="94" spans="3:4" ht="14.4">
+    <row r="94" spans="3:4">
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
     </row>
-    <row r="95" spans="3:4" ht="14.4">
+    <row r="95" spans="3:4">
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
     </row>
-    <row r="96" spans="3:4" ht="14.4">
+    <row r="96" spans="3:4">
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
     </row>
-    <row r="97" spans="3:4" ht="14.4">
+    <row r="97" spans="3:4">
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
     </row>
-    <row r="98" spans="3:4" ht="14.4">
+    <row r="98" spans="3:4">
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
     </row>
-    <row r="99" spans="3:4" ht="14.4">
+    <row r="99" spans="3:4">
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
     </row>
-    <row r="100" spans="3:4" ht="14.4">
+    <row r="100" spans="3:4">
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
     </row>
-    <row r="101" spans="3:4" ht="14.4">
+    <row r="101" spans="3:4">
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
     </row>
-    <row r="102" spans="3:4" ht="14.4">
+    <row r="102" spans="3:4">
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
     </row>
-    <row r="103" spans="3:4" ht="14.4">
+    <row r="103" spans="3:4">
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
     </row>
-    <row r="104" spans="3:4" ht="14.4">
+    <row r="104" spans="3:4">
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
     </row>
-    <row r="105" spans="3:4" ht="14.4">
+    <row r="105" spans="3:4">
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
     </row>
-    <row r="106" spans="3:4" ht="14.4">
+    <row r="106" spans="3:4">
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
     </row>
-    <row r="107" spans="3:4" ht="14.4">
+    <row r="107" spans="3:4">
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
     </row>
-    <row r="108" spans="3:4" ht="14.4">
+    <row r="108" spans="3:4">
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
     </row>
-    <row r="109" spans="3:4" ht="14.4">
+    <row r="109" spans="3:4">
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
     </row>
-    <row r="110" spans="3:4" ht="14.4">
+    <row r="110" spans="3:4">
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
     </row>
-    <row r="111" spans="3:4" ht="14.4">
+    <row r="111" spans="3:4">
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
     </row>
-    <row r="112" spans="3:4" ht="14.4">
+    <row r="112" spans="3:4">
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
     </row>
-    <row r="113" spans="3:4" ht="14.4">
+    <row r="113" spans="3:4">
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
     </row>
-    <row r="114" spans="3:4" ht="14.4">
+    <row r="114" spans="3:4">
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
     </row>
-    <row r="115" spans="3:4" ht="14.4">
+    <row r="115" spans="3:4">
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
     </row>
-    <row r="116" spans="3:4" ht="14.4">
+    <row r="116" spans="3:4">
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
     </row>
-    <row r="117" spans="3:4" ht="14.4">
+    <row r="117" spans="3:4">
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
     </row>
-    <row r="118" spans="3:4" ht="14.4">
+    <row r="118" spans="3:4">
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
     </row>
-    <row r="119" spans="3:4" ht="14.4">
+    <row r="119" spans="3:4">
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
     </row>
-    <row r="120" spans="3:4" ht="14.4">
+    <row r="120" spans="3:4">
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
     </row>
-    <row r="121" spans="3:4" ht="14.4">
+    <row r="121" spans="3:4">
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
     </row>
-    <row r="122" spans="3:4" ht="14.4">
+    <row r="122" spans="3:4">
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
     </row>
-    <row r="123" spans="3:4" ht="14.4">
+    <row r="123" spans="3:4">
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
     </row>
-    <row r="124" spans="3:4" ht="14.4">
+    <row r="124" spans="3:4">
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
     </row>
-    <row r="125" spans="3:4" ht="14.4">
+    <row r="125" spans="3:4">
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
     </row>
-    <row r="126" spans="3:4" ht="14.4">
+    <row r="126" spans="3:4">
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
     </row>
-    <row r="127" spans="3:4" ht="14.4">
+    <row r="127" spans="3:4">
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
     </row>
-    <row r="128" spans="3:4" ht="14.4">
+    <row r="128" spans="3:4">
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
     </row>
-    <row r="129" spans="3:4" ht="14.4">
+    <row r="129" spans="3:4">
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
     </row>
-    <row r="130" spans="3:4" ht="14.4">
+    <row r="130" spans="3:4">
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
     </row>
-    <row r="131" spans="3:4" ht="14.4">
+    <row r="131" spans="3:4">
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
     </row>
-    <row r="132" spans="3:4" ht="14.4">
+    <row r="132" spans="3:4">
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
     </row>
-    <row r="133" spans="3:4" ht="14.4">
+    <row r="133" spans="3:4">
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
     </row>
-    <row r="134" spans="3:4" ht="14.4">
+    <row r="134" spans="3:4">
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
     </row>
-    <row r="135" spans="3:4" ht="14.4">
+    <row r="135" spans="3:4">
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
     </row>
-    <row r="136" spans="3:4" ht="14.4">
+    <row r="136" spans="3:4">
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
     </row>
-    <row r="137" spans="3:4" ht="14.4">
+    <row r="137" spans="3:4">
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
     </row>
-    <row r="138" spans="3:4" ht="14.4">
+    <row r="138" spans="3:4">
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
     </row>
-    <row r="139" spans="3:4" ht="14.4">
+    <row r="139" spans="3:4">
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
     </row>
-    <row r="140" spans="3:4" ht="14.4">
+    <row r="140" spans="3:4">
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
     </row>
-    <row r="141" spans="3:4" ht="14.4">
+    <row r="141" spans="3:4">
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
     </row>
-    <row r="142" spans="3:4" ht="14.4">
+    <row r="142" spans="3:4">
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
     </row>
-    <row r="143" spans="3:4" ht="14.4">
+    <row r="143" spans="3:4">
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
     </row>
-    <row r="144" spans="3:4" ht="14.4">
+    <row r="144" spans="3:4">
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
     </row>
-    <row r="145" spans="3:4" ht="14.4">
+    <row r="145" spans="3:4">
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
     </row>
-    <row r="146" spans="3:4" ht="14.4">
+    <row r="146" spans="3:4">
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
     </row>
-    <row r="147" spans="3:4" ht="14.4">
+    <row r="147" spans="3:4">
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
     </row>
-    <row r="148" spans="3:4" ht="14.4">
+    <row r="148" spans="3:4">
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
     </row>
-    <row r="149" spans="3:4" ht="14.4">
+    <row r="149" spans="3:4">
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
     </row>
-    <row r="150" spans="3:4" ht="14.4">
+    <row r="150" spans="3:4">
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
     </row>
-    <row r="151" spans="3:4" ht="14.4">
+    <row r="151" spans="3:4">
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
     </row>
-    <row r="152" spans="3:4" ht="14.4">
+    <row r="152" spans="3:4">
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
     </row>
-    <row r="153" spans="3:4" ht="14.4">
+    <row r="153" spans="3:4">
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
     </row>
-    <row r="154" spans="3:4" ht="14.4">
+    <row r="154" spans="3:4">
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
     </row>
-    <row r="155" spans="3:4" ht="14.4">
+    <row r="155" spans="3:4">
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
     </row>
-    <row r="156" spans="3:4" ht="14.4">
+    <row r="156" spans="3:4">
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
     </row>
-    <row r="157" spans="3:4" ht="14.4">
+    <row r="157" spans="3:4">
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
     </row>
-    <row r="158" spans="3:4" ht="14.4">
+    <row r="158" spans="3:4">
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
     </row>
-    <row r="159" spans="3:4" ht="14.4">
+    <row r="159" spans="3:4">
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
     </row>
-    <row r="160" spans="3:4" ht="14.4">
+    <row r="160" spans="3:4">
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
     </row>
-    <row r="161" spans="3:4" ht="14.4">
+    <row r="161" spans="3:4">
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
     </row>
-    <row r="162" spans="3:4" ht="14.4">
+    <row r="162" spans="3:4">
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
     </row>
-    <row r="163" spans="3:4" ht="14.4">
+    <row r="163" spans="3:4">
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
     </row>
-    <row r="164" spans="3:4" ht="14.4">
+    <row r="164" spans="3:4">
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
     </row>
-    <row r="165" spans="3:4" ht="14.4">
+    <row r="165" spans="3:4">
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
     </row>
-    <row r="166" spans="3:4" ht="14.4">
+    <row r="166" spans="3:4">
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
     </row>
-    <row r="167" spans="3:4" ht="14.4">
+    <row r="167" spans="3:4">
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
     </row>
-    <row r="168" spans="3:4" ht="14.4">
+    <row r="168" spans="3:4">
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
     </row>
-    <row r="169" spans="3:4" ht="14.4">
+    <row r="169" spans="3:4">
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
     </row>
-    <row r="170" spans="3:4" ht="14.4">
+    <row r="170" spans="3:4">
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
     </row>
-    <row r="171" spans="3:4" ht="14.4">
+    <row r="171" spans="3:4">
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
     </row>
-    <row r="172" spans="3:4" ht="14.4">
+    <row r="172" spans="3:4">
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
     </row>
-    <row r="173" spans="3:4" ht="14.4">
+    <row r="173" spans="3:4">
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
     </row>
-    <row r="174" spans="3:4" ht="14.4">
+    <row r="174" spans="3:4">
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
     </row>
-    <row r="175" spans="3:4" ht="14.4">
+    <row r="175" spans="3:4">
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
     </row>
-    <row r="176" spans="3:4" ht="14.4">
+    <row r="176" spans="3:4">
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
     </row>
-    <row r="177" spans="3:4" ht="14.4">
+    <row r="177" spans="3:4">
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
     </row>
-    <row r="178" spans="3:4" ht="14.4">
+    <row r="178" spans="3:4">
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
     </row>
-    <row r="179" spans="3:4" ht="14.4">
+    <row r="179" spans="3:4">
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
     </row>
-    <row r="180" spans="3:4" ht="14.4">
+    <row r="180" spans="3:4">
       <c r="C180" s="17"/>
       <c r="D180" s="17"/>
     </row>
-    <row r="181" spans="3:4" ht="14.4">
+    <row r="181" spans="3:4">
       <c r="C181" s="17"/>
       <c r="D181" s="17"/>
     </row>
-    <row r="182" spans="3:4" ht="14.4">
+    <row r="182" spans="3:4">
       <c r="C182" s="17"/>
       <c r="D182" s="17"/>
     </row>
-    <row r="183" spans="3:4" ht="14.4">
+    <row r="183" spans="3:4">
       <c r="C183" s="17"/>
       <c r="D183" s="17"/>
     </row>
-    <row r="184" spans="3:4" ht="14.4">
+    <row r="184" spans="3:4">
       <c r="C184" s="17"/>
       <c r="D184" s="17"/>
     </row>
-    <row r="185" spans="3:4" ht="14.4">
+    <row r="185" spans="3:4">
       <c r="C185" s="17"/>
       <c r="D185" s="17"/>
     </row>
-    <row r="186" spans="3:4" ht="14.4">
+    <row r="186" spans="3:4">
       <c r="C186" s="17"/>
       <c r="D186" s="17"/>
     </row>
-    <row r="187" spans="3:4" ht="14.4">
+    <row r="187" spans="3:4">
       <c r="C187" s="17"/>
       <c r="D187" s="17"/>
     </row>
-    <row r="188" spans="3:4" ht="14.4">
+    <row r="188" spans="3:4">
       <c r="C188" s="17"/>
       <c r="D188" s="17"/>
     </row>
-    <row r="189" spans="3:4" ht="14.4">
+    <row r="189" spans="3:4">
       <c r="C189" s="17"/>
       <c r="D189" s="17"/>
     </row>
-    <row r="190" spans="3:4" ht="14.4">
+    <row r="190" spans="3:4">
       <c r="C190" s="17"/>
       <c r="D190" s="17"/>
     </row>
-    <row r="191" spans="3:4" ht="14.4">
+    <row r="191" spans="3:4">
       <c r="C191" s="17"/>
       <c r="D191" s="17"/>
     </row>
-    <row r="192" spans="3:4" ht="14.4">
+    <row r="192" spans="3:4">
       <c r="C192" s="17"/>
       <c r="D192" s="17"/>
     </row>
-    <row r="193" spans="3:4" ht="14.4">
+    <row r="193" spans="3:4">
       <c r="C193" s="17"/>
       <c r="D193" s="17"/>
     </row>
-    <row r="194" spans="3:4" ht="14.4">
+    <row r="194" spans="3:4">
       <c r="C194" s="17"/>
       <c r="D194" s="17"/>
     </row>
-    <row r="195" spans="3:4" ht="14.4">
+    <row r="195" spans="3:4">
       <c r="C195" s="17"/>
       <c r="D195" s="17"/>
     </row>
-    <row r="196" spans="3:4" ht="14.4">
+    <row r="196" spans="3:4">
       <c r="C196" s="17"/>
       <c r="D196" s="17"/>
     </row>
-    <row r="197" spans="3:4" ht="14.4">
+    <row r="197" spans="3:4">
       <c r="C197" s="17"/>
       <c r="D197" s="17"/>
     </row>
-    <row r="198" spans="3:4" ht="14.4">
+    <row r="198" spans="3:4">
       <c r="C198" s="17"/>
       <c r="D198" s="17"/>
     </row>
-    <row r="199" spans="3:4" ht="14.4">
+    <row r="199" spans="3:4">
       <c r="C199" s="17"/>
       <c r="D199" s="17"/>
     </row>
-    <row r="200" spans="3:4" ht="14.4">
+    <row r="200" spans="3:4">
       <c r="C200" s="17"/>
       <c r="D200" s="17"/>
     </row>
-    <row r="201" spans="3:4" ht="14.4">
+    <row r="201" spans="3:4">
       <c r="C201" s="17"/>
       <c r="D201" s="17"/>
     </row>
-    <row r="202" spans="3:4" ht="14.4">
+    <row r="202" spans="3:4">
       <c r="C202" s="17"/>
       <c r="D202" s="17"/>
     </row>
-    <row r="203" spans="3:4" ht="14.4">
+    <row r="203" spans="3:4">
       <c r="C203" s="17"/>
       <c r="D203" s="17"/>
     </row>
-    <row r="204" spans="3:4" ht="14.4">
+    <row r="204" spans="3:4">
       <c r="C204" s="17"/>
       <c r="D204" s="17"/>
     </row>
-    <row r="205" spans="3:4" ht="14.4">
+    <row r="205" spans="3:4">
       <c r="C205" s="17"/>
       <c r="D205" s="17"/>
     </row>
-    <row r="206" spans="3:4" ht="14.4">
+    <row r="206" spans="3:4">
       <c r="C206" s="17"/>
       <c r="D206" s="17"/>
     </row>
-    <row r="207" spans="3:4" ht="14.4">
+    <row r="207" spans="3:4">
       <c r="C207" s="17"/>
       <c r="D207" s="17"/>
     </row>
-    <row r="208" spans="3:4" ht="14.4">
+    <row r="208" spans="3:4">
       <c r="C208" s="17"/>
       <c r="D208" s="17"/>
     </row>
-    <row r="209" spans="3:4" ht="14.4">
+    <row r="209" spans="3:4">
       <c r="C209" s="17"/>
       <c r="D209" s="17"/>
     </row>
-    <row r="210" spans="3:4" ht="14.4">
+    <row r="210" spans="3:4">
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
     </row>
-    <row r="211" spans="3:4" ht="14.4">
+    <row r="211" spans="3:4">
       <c r="C211" s="17"/>
       <c r="D211" s="17"/>
     </row>
-    <row r="212" spans="3:4" ht="14.4">
+    <row r="212" spans="3:4">
       <c r="C212" s="17"/>
       <c r="D212" s="17"/>
     </row>
-    <row r="213" spans="3:4" ht="14.4">
+    <row r="213" spans="3:4">
       <c r="C213" s="17"/>
       <c r="D213" s="17"/>
     </row>
-    <row r="214" spans="3:4" ht="14.4">
+    <row r="214" spans="3:4">
       <c r="C214" s="17"/>
       <c r="D214" s="17"/>
     </row>
-    <row r="215" spans="3:4" ht="14.4">
+    <row r="215" spans="3:4">
       <c r="C215" s="17"/>
       <c r="D215" s="17"/>
     </row>
-    <row r="216" spans="3:4" ht="14.4">
+    <row r="216" spans="3:4">
       <c r="C216" s="17"/>
       <c r="D216" s="17"/>
     </row>
-    <row r="217" spans="3:4" ht="14.4">
+    <row r="217" spans="3:4">
       <c r="C217" s="17"/>
       <c r="D217" s="17"/>
     </row>
-    <row r="218" spans="3:4" ht="14.4">
+    <row r="218" spans="3:4">
       <c r="C218" s="17"/>
       <c r="D218" s="17"/>
     </row>
-    <row r="219" spans="3:4" ht="14.4">
+    <row r="219" spans="3:4">
       <c r="C219" s="17"/>
       <c r="D219" s="17"/>
     </row>
-    <row r="220" spans="3:4" ht="14.4">
+    <row r="220" spans="3:4">
       <c r="C220" s="17"/>
       <c r="D220" s="17"/>
     </row>
-    <row r="221" spans="3:4" ht="14.4">
+    <row r="221" spans="3:4">
       <c r="C221" s="17"/>
       <c r="D221" s="17"/>
     </row>
-    <row r="222" spans="3:4" ht="14.4">
+    <row r="222" spans="3:4">
       <c r="C222" s="17"/>
       <c r="D222" s="17"/>
     </row>
-    <row r="223" spans="3:4" ht="14.4">
+    <row r="223" spans="3:4">
       <c r="C223" s="17"/>
       <c r="D223" s="17"/>
     </row>
-    <row r="224" spans="3:4" ht="14.4">
+    <row r="224" spans="3:4">
       <c r="C224" s="17"/>
       <c r="D224" s="17"/>
     </row>
-    <row r="225" spans="3:4" ht="14.4">
+    <row r="225" spans="3:4">
       <c r="C225" s="17"/>
       <c r="D225" s="17"/>
     </row>
-    <row r="226" spans="3:4" ht="14.4">
+    <row r="226" spans="3:4">
       <c r="C226" s="17"/>
       <c r="D226" s="17"/>
     </row>
-    <row r="227" spans="3:4" ht="14.4">
+    <row r="227" spans="3:4">
       <c r="C227" s="17"/>
       <c r="D227" s="17"/>
     </row>
-    <row r="228" spans="3:4" ht="14.4">
+    <row r="228" spans="3:4">
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
     </row>
-    <row r="229" spans="3:4" ht="14.4">
+    <row r="229" spans="3:4">
       <c r="C229" s="17"/>
       <c r="D229" s="17"/>
     </row>
-    <row r="230" spans="3:4" ht="14.4">
+    <row r="230" spans="3:4">
       <c r="C230" s="17"/>
       <c r="D230" s="17"/>
     </row>
-    <row r="231" spans="3:4" ht="14.4">
+    <row r="231" spans="3:4">
       <c r="C231" s="17"/>
       <c r="D231" s="17"/>
     </row>
-    <row r="232" spans="3:4" ht="14.4">
+    <row r="232" spans="3:4">
       <c r="C232" s="17"/>
       <c r="D232" s="17"/>
     </row>
-    <row r="233" spans="3:4" ht="14.4">
+    <row r="233" spans="3:4">
       <c r="C233" s="17"/>
       <c r="D233" s="17"/>
     </row>
-    <row r="234" spans="3:4" ht="14.4">
+    <row r="234" spans="3:4">
       <c r="C234" s="17"/>
       <c r="D234" s="17"/>
     </row>
-    <row r="235" spans="3:4" ht="14.4">
+    <row r="235" spans="3:4">
       <c r="C235" s="17"/>
       <c r="D235" s="17"/>
     </row>
-    <row r="236" spans="3:4" ht="14.4">
+    <row r="236" spans="3:4">
       <c r="C236" s="17"/>
       <c r="D236" s="17"/>
     </row>
-    <row r="237" spans="3:4" ht="14.4">
+    <row r="237" spans="3:4">
       <c r="C237" s="17"/>
       <c r="D237" s="17"/>
     </row>
-    <row r="238" spans="3:4" ht="14.4">
+    <row r="238" spans="3:4">
       <c r="C238" s="17"/>
       <c r="D238" s="17"/>
     </row>
-    <row r="239" spans="3:4" ht="14.4">
+    <row r="239" spans="3:4">
       <c r="C239" s="17"/>
       <c r="D239" s="17"/>
     </row>
-    <row r="240" spans="3:4" ht="14.4">
+    <row r="240" spans="3:4">
       <c r="C240" s="17"/>
       <c r="D240" s="17"/>
     </row>
-    <row r="241" spans="3:4" ht="14.4">
+    <row r="241" spans="3:4">
       <c r="C241" s="17"/>
       <c r="D241" s="17"/>
     </row>
-    <row r="242" spans="3:4" ht="14.4">
+    <row r="242" spans="3:4">
       <c r="C242" s="17"/>
       <c r="D242" s="17"/>
     </row>
-    <row r="243" spans="3:4" ht="14.4">
+    <row r="243" spans="3:4">
       <c r="C243" s="17"/>
       <c r="D243" s="17"/>
     </row>
-    <row r="244" spans="3:4" ht="14.4">
+    <row r="244" spans="3:4">
       <c r="C244" s="17"/>
       <c r="D244" s="17"/>
     </row>
-    <row r="245" spans="3:4" ht="14.4">
+    <row r="245" spans="3:4">
       <c r="C245" s="17"/>
       <c r="D245" s="17"/>
     </row>
-    <row r="246" spans="3:4" ht="14.4">
+    <row r="246" spans="3:4">
       <c r="C246" s="17"/>
       <c r="D246" s="17"/>
     </row>
-    <row r="247" spans="3:4" ht="14.4">
+    <row r="247" spans="3:4">
       <c r="C247" s="17"/>
       <c r="D247" s="17"/>
     </row>
-    <row r="248" spans="3:4" ht="14.4">
+    <row r="248" spans="3:4">
       <c r="C248" s="17"/>
       <c r="D248" s="17"/>
     </row>
-    <row r="249" spans="3:4" ht="14.4">
+    <row r="249" spans="3:4">
       <c r="C249" s="17"/>
       <c r="D249" s="17"/>
     </row>
-    <row r="250" spans="3:4" ht="14.4">
+    <row r="250" spans="3:4">
       <c r="C250" s="17"/>
       <c r="D250" s="17"/>
     </row>
-    <row r="251" spans="3:4" ht="14.4">
+    <row r="251" spans="3:4">
       <c r="C251" s="17"/>
       <c r="D251" s="17"/>
     </row>
-    <row r="252" spans="3:4" ht="14.4">
+    <row r="252" spans="3:4">
       <c r="C252" s="17"/>
       <c r="D252" s="17"/>
     </row>
-    <row r="253" spans="3:4" ht="14.4">
+    <row r="253" spans="3:4">
       <c r="C253" s="17"/>
       <c r="D253" s="17"/>
     </row>
-    <row r="254" spans="3:4" ht="14.4">
+    <row r="254" spans="3:4">
       <c r="C254" s="17"/>
       <c r="D254" s="17"/>
     </row>
-    <row r="255" spans="3:4" ht="14.4">
+    <row r="255" spans="3:4">
       <c r="C255" s="17"/>
       <c r="D255" s="17"/>
     </row>
-    <row r="256" spans="3:4" ht="14.4">
+    <row r="256" spans="3:4">
       <c r="C256" s="17"/>
       <c r="D256" s="17"/>
     </row>
-    <row r="257" spans="3:4" ht="14.4">
+    <row r="257" spans="3:4">
       <c r="C257" s="17"/>
       <c r="D257" s="17"/>
     </row>
-    <row r="258" spans="3:4" ht="14.4">
+    <row r="258" spans="3:4">
       <c r="C258" s="17"/>
       <c r="D258" s="17"/>
     </row>
-    <row r="259" spans="3:4" ht="14.4">
+    <row r="259" spans="3:4">
       <c r="C259" s="17"/>
       <c r="D259" s="17"/>
     </row>
-    <row r="260" spans="3:4" ht="14.4">
+    <row r="260" spans="3:4">
       <c r="C260" s="17"/>
       <c r="D260" s="17"/>
     </row>
-    <row r="261" spans="3:4" ht="14.4">
+    <row r="261" spans="3:4">
       <c r="C261" s="17"/>
       <c r="D261" s="17"/>
     </row>
-    <row r="262" spans="3:4" ht="14.4">
+    <row r="262" spans="3:4">
       <c r="C262" s="17"/>
       <c r="D262" s="17"/>
     </row>
-    <row r="263" spans="3:4" ht="14.4">
+    <row r="263" spans="3:4">
       <c r="C263" s="17"/>
       <c r="D263" s="17"/>
     </row>
-    <row r="264" spans="3:4" ht="14.4">
+    <row r="264" spans="3:4">
       <c r="C264" s="17"/>
       <c r="D264" s="17"/>
     </row>
-    <row r="265" spans="3:4" ht="14.4">
+    <row r="265" spans="3:4">
       <c r="C265" s="17"/>
       <c r="D265" s="17"/>
     </row>
-    <row r="266" spans="3:4" ht="14.4">
+    <row r="266" spans="3:4">
       <c r="C266" s="17"/>
       <c r="D266" s="17"/>
     </row>
-    <row r="267" spans="3:4" ht="14.4">
+    <row r="267" spans="3:4">
       <c r="C267" s="17"/>
       <c r="D267" s="17"/>
     </row>
-    <row r="268" spans="3:4" ht="14.4">
+    <row r="268" spans="3:4">
       <c r="C268" s="17"/>
       <c r="D268" s="17"/>
     </row>
-    <row r="269" spans="3:4" ht="14.4">
+    <row r="269" spans="3:4">
       <c r="C269" s="17"/>
       <c r="D269" s="17"/>
     </row>
-    <row r="270" spans="3:4" ht="14.4">
+    <row r="270" spans="3:4">
       <c r="C270" s="17"/>
       <c r="D270" s="17"/>
     </row>
-    <row r="271" spans="3:4" ht="14.4">
+    <row r="271" spans="3:4">
       <c r="C271" s="17"/>
       <c r="D271" s="17"/>
     </row>
-    <row r="272" spans="3:4" ht="14.4">
+    <row r="272" spans="3:4">
       <c r="C272" s="17"/>
       <c r="D272" s="17"/>
     </row>
-    <row r="273" spans="3:4" ht="14.4">
+    <row r="273" spans="3:4">
       <c r="C273" s="17"/>
       <c r="D273" s="17"/>
     </row>
-    <row r="274" spans="3:4" ht="14.4">
+    <row r="274" spans="3:4">
       <c r="C274" s="17"/>
       <c r="D274" s="17"/>
     </row>
-    <row r="275" spans="3:4" ht="14.4">
+    <row r="275" spans="3:4">
       <c r="C275" s="17"/>
       <c r="D275" s="17"/>
     </row>
-    <row r="276" spans="3:4" ht="14.4">
+    <row r="276" spans="3:4">
       <c r="C276" s="17"/>
       <c r="D276" s="17"/>
     </row>
-    <row r="277" spans="3:4" ht="14.4">
+    <row r="277" spans="3:4">
       <c r="C277" s="17"/>
       <c r="D277" s="17"/>
     </row>
-    <row r="278" spans="3:4" ht="14.4">
+    <row r="278" spans="3:4">
       <c r="C278" s="17"/>
       <c r="D278" s="17"/>
     </row>
-    <row r="279" spans="3:4" ht="14.4">
+    <row r="279" spans="3:4">
       <c r="C279" s="17"/>
       <c r="D279" s="17"/>
     </row>
-    <row r="280" spans="3:4" ht="14.4">
+    <row r="280" spans="3:4">
       <c r="C280" s="17"/>
       <c r="D280" s="17"/>
     </row>
-    <row r="281" spans="3:4" ht="14.4">
+    <row r="281" spans="3:4">
       <c r="C281" s="17"/>
       <c r="D281" s="17"/>
     </row>
-    <row r="282" spans="3:4" ht="14.4">
+    <row r="282" spans="3:4">
       <c r="C282" s="17"/>
       <c r="D282" s="17"/>
     </row>
-    <row r="283" spans="3:4" ht="14.4">
+    <row r="283" spans="3:4">
       <c r="C283" s="17"/>
       <c r="D283" s="17"/>
     </row>
-    <row r="284" spans="3:4" ht="14.4">
+    <row r="284" spans="3:4">
       <c r="C284" s="17"/>
       <c r="D284" s="17"/>
     </row>
-    <row r="285" spans="3:4" ht="14.4">
+    <row r="285" spans="3:4">
       <c r="C285" s="17"/>
       <c r="D285" s="17"/>
     </row>
-    <row r="286" spans="3:4" ht="14.4">
+    <row r="286" spans="3:4">
       <c r="C286" s="17"/>
       <c r="D286" s="17"/>
     </row>
-    <row r="287" spans="3:4" ht="14.4">
+    <row r="287" spans="3:4">
       <c r="C287" s="17"/>
       <c r="D287" s="17"/>
     </row>
-    <row r="288" spans="3:4" ht="14.4">
+    <row r="288" spans="3:4">
       <c r="C288" s="17"/>
       <c r="D288" s="17"/>
     </row>
-    <row r="289" spans="3:4" ht="14.4">
+    <row r="289" spans="3:4">
       <c r="C289" s="17"/>
       <c r="D289" s="17"/>
     </row>
-    <row r="290" spans="3:4" ht="14.4">
+    <row r="290" spans="3:4">
       <c r="C290" s="17"/>
       <c r="D290" s="17"/>
     </row>
-    <row r="291" spans="3:4" ht="14.4">
+    <row r="291" spans="3:4">
       <c r="C291" s="17"/>
       <c r="D291" s="17"/>
     </row>
-    <row r="292" spans="3:4" ht="14.4">
+    <row r="292" spans="3:4">
       <c r="C292" s="17"/>
       <c r="D292" s="17"/>
     </row>
-    <row r="293" spans="3:4" ht="14.4">
+    <row r="293" spans="3:4">
       <c r="C293" s="17"/>
       <c r="D293" s="17"/>
     </row>
-    <row r="294" spans="3:4" ht="14.4">
+    <row r="294" spans="3:4">
       <c r="C294" s="17"/>
       <c r="D294" s="17"/>
     </row>
-    <row r="295" spans="3:4" ht="14.4">
+    <row r="295" spans="3:4">
       <c r="C295" s="17"/>
       <c r="D295" s="17"/>
     </row>
-    <row r="296" spans="3:4" ht="14.4">
+    <row r="296" spans="3:4">
       <c r="C296" s="17"/>
       <c r="D296" s="17"/>
     </row>
-    <row r="297" spans="3:4" ht="14.4">
+    <row r="297" spans="3:4">
       <c r="C297" s="17"/>
       <c r="D297" s="17"/>
     </row>
-    <row r="298" spans="3:4" ht="14.4">
+    <row r="298" spans="3:4">
       <c r="C298" s="17"/>
       <c r="D298" s="17"/>
     </row>
-    <row r="299" spans="3:4" ht="14.4">
+    <row r="299" spans="3:4">
       <c r="C299" s="17"/>
       <c r="D299" s="17"/>
     </row>
-    <row r="300" spans="3:4" ht="14.4">
+    <row r="300" spans="3:4">
       <c r="C300" s="17"/>
       <c r="D300" s="17"/>
     </row>
-    <row r="301" spans="3:4" ht="14.4">
+    <row r="301" spans="3:4">
       <c r="C301" s="17"/>
       <c r="D301" s="17"/>
     </row>
-    <row r="302" spans="3:4" ht="14.4">
+    <row r="302" spans="3:4">
       <c r="C302" s="17"/>
       <c r="D302" s="17"/>
     </row>
-    <row r="303" spans="3:4" ht="14.4">
+    <row r="303" spans="3:4">
       <c r="C303" s="17"/>
       <c r="D303" s="17"/>
     </row>
-    <row r="304" spans="3:4" ht="14.4">
+    <row r="304" spans="3:4">
       <c r="C304" s="17"/>
       <c r="D304" s="17"/>
     </row>
-    <row r="305" spans="3:4" ht="14.4">
+    <row r="305" spans="3:4">
       <c r="C305" s="17"/>
       <c r="D305" s="17"/>
     </row>
-    <row r="306" spans="3:4" ht="14.4">
+    <row r="306" spans="3:4">
       <c r="C306" s="17"/>
       <c r="D306" s="17"/>
     </row>
-    <row r="307" spans="3:4" ht="14.4">
+    <row r="307" spans="3:4">
       <c r="C307" s="17"/>
       <c r="D307" s="17"/>
     </row>
-    <row r="308" spans="3:4" ht="14.4">
+    <row r="308" spans="3:4">
       <c r="C308" s="17"/>
       <c r="D308" s="17"/>
     </row>
-    <row r="309" spans="3:4" ht="14.4">
+    <row r="309" spans="3:4">
       <c r="C309" s="17"/>
       <c r="D309" s="17"/>
     </row>
-    <row r="310" spans="3:4" ht="14.4">
+    <row r="310" spans="3:4">
       <c r="C310" s="17"/>
       <c r="D310" s="17"/>
     </row>
-    <row r="311" spans="3:4" ht="14.4">
+    <row r="311" spans="3:4">
       <c r="C311" s="17"/>
       <c r="D311" s="17"/>
     </row>
-    <row r="312" spans="3:4" ht="14.4">
+    <row r="312" spans="3:4">
       <c r="C312" s="17"/>
       <c r="D312" s="17"/>
     </row>
-    <row r="313" spans="3:4" ht="14.4">
+    <row r="313" spans="3:4">
       <c r="C313" s="17"/>
       <c r="D313" s="17"/>
     </row>
-    <row r="314" spans="3:4" ht="14.4">
+    <row r="314" spans="3:4">
       <c r="C314" s="17"/>
       <c r="D314" s="17"/>
     </row>
-    <row r="315" spans="3:4" ht="14.4">
+    <row r="315" spans="3:4">
       <c r="C315" s="17"/>
       <c r="D315" s="17"/>
     </row>
-    <row r="316" spans="3:4" ht="14.4">
+    <row r="316" spans="3:4">
       <c r="C316" s="17"/>
       <c r="D316" s="17"/>
     </row>
-    <row r="317" spans="3:4" ht="14.4">
+    <row r="317" spans="3:4">
       <c r="C317" s="17"/>
       <c r="D317" s="17"/>
     </row>
-    <row r="318" spans="3:4" ht="14.4">
+    <row r="318" spans="3:4">
       <c r="C318" s="17"/>
       <c r="D318" s="17"/>
     </row>
-    <row r="319" spans="3:4" ht="14.4">
+    <row r="319" spans="3:4">
       <c r="C319" s="17"/>
       <c r="D319" s="17"/>
     </row>
-    <row r="320" spans="3:4" ht="14.4">
+    <row r="320" spans="3:4">
       <c r="C320" s="17"/>
       <c r="D320" s="17"/>
     </row>
-    <row r="321" spans="3:4" ht="14.4">
+    <row r="321" spans="3:4">
       <c r="C321" s="17"/>
       <c r="D321" s="17"/>
     </row>
-    <row r="322" spans="3:4" ht="14.4">
+    <row r="322" spans="3:4">
       <c r="C322" s="17"/>
       <c r="D322" s="17"/>
     </row>
-    <row r="323" spans="3:4" ht="14.4">
+    <row r="323" spans="3:4">
       <c r="C323" s="17"/>
       <c r="D323" s="17"/>
     </row>
-    <row r="324" spans="3:4" ht="14.4">
+    <row r="324" spans="3:4">
       <c r="C324" s="17"/>
       <c r="D324" s="17"/>
     </row>
-    <row r="325" spans="3:4" ht="14.4">
+    <row r="325" spans="3:4">
       <c r="C325" s="17"/>
       <c r="D325" s="17"/>
     </row>
-    <row r="326" spans="3:4" ht="14.4">
+    <row r="326" spans="3:4">
       <c r="C326" s="17"/>
       <c r="D326" s="17"/>
     </row>
-    <row r="327" spans="3:4" ht="14.4">
+    <row r="327" spans="3:4">
       <c r="C327" s="17"/>
       <c r="D327" s="17"/>
     </row>
-    <row r="328" spans="3:4" ht="14.4">
+    <row r="328" spans="3:4">
       <c r="C328" s="17"/>
       <c r="D328" s="17"/>
     </row>
-    <row r="329" spans="3:4" ht="14.4">
+    <row r="329" spans="3:4">
       <c r="C329" s="17"/>
       <c r="D329" s="17"/>
     </row>
-    <row r="330" spans="3:4" ht="14.4">
+    <row r="330" spans="3:4">
       <c r="C330" s="17"/>
       <c r="D330" s="17"/>
     </row>
-    <row r="331" spans="3:4" ht="14.4">
+    <row r="331" spans="3:4">
       <c r="C331" s="17"/>
       <c r="D331" s="17"/>
     </row>
-    <row r="332" spans="3:4" ht="14.4">
+    <row r="332" spans="3:4">
       <c r="C332" s="17"/>
       <c r="D332" s="17"/>
     </row>
-    <row r="333" spans="3:4" ht="14.4">
+    <row r="333" spans="3:4">
       <c r="C333" s="17"/>
       <c r="D333" s="17"/>
     </row>
-    <row r="334" spans="3:4" ht="14.4">
+    <row r="334" spans="3:4">
       <c r="C334" s="17"/>
       <c r="D334" s="17"/>
     </row>
-    <row r="335" spans="3:4" ht="14.4">
+    <row r="335" spans="3:4">
       <c r="C335" s="17"/>
       <c r="D335" s="17"/>
     </row>
-    <row r="336" spans="3:4" ht="14.4">
+    <row r="336" spans="3:4">
       <c r="C336" s="17"/>
       <c r="D336" s="17"/>
     </row>
-    <row r="337" spans="3:4" ht="14.4">
+    <row r="337" spans="3:4">
       <c r="C337" s="17"/>
       <c r="D337" s="17"/>
     </row>
-    <row r="338" spans="3:4" ht="14.4">
+    <row r="338" spans="3:4">
       <c r="C338" s="17"/>
       <c r="D338" s="17"/>
     </row>
-    <row r="339" spans="3:4" ht="14.4">
+    <row r="339" spans="3:4">
       <c r="C339" s="17"/>
       <c r="D339" s="17"/>
     </row>
-    <row r="340" spans="3:4" ht="14.4">
+    <row r="340" spans="3:4">
       <c r="C340" s="17"/>
       <c r="D340" s="17"/>
     </row>
-    <row r="341" spans="3:4" ht="14.4">
+    <row r="341" spans="3:4">
       <c r="C341" s="17"/>
       <c r="D341" s="17"/>
     </row>
-    <row r="342" spans="3:4" ht="14.4">
+    <row r="342" spans="3:4">
       <c r="C342" s="17"/>
       <c r="D342" s="17"/>
     </row>
-    <row r="343" spans="3:4" ht="14.4">
+    <row r="343" spans="3:4">
       <c r="C343" s="17"/>
       <c r="D343" s="17"/>
     </row>
-    <row r="344" spans="3:4" ht="14.4">
+    <row r="344" spans="3:4">
       <c r="C344" s="17"/>
       <c r="D344" s="17"/>
     </row>
-    <row r="345" spans="3:4" ht="14.4">
+    <row r="345" spans="3:4">
       <c r="C345" s="17"/>
       <c r="D345" s="17"/>
     </row>
-    <row r="346" spans="3:4" ht="14.4">
+    <row r="346" spans="3:4">
       <c r="C346" s="17"/>
       <c r="D346" s="17"/>
     </row>
-    <row r="347" spans="3:4" ht="14.4">
+    <row r="347" spans="3:4">
       <c r="C347" s="17"/>
       <c r="D347" s="17"/>
     </row>
-    <row r="348" spans="3:4" ht="14.4">
+    <row r="348" spans="3:4">
       <c r="C348" s="17"/>
       <c r="D348" s="17"/>
     </row>
-    <row r="349" spans="3:4" ht="14.4">
+    <row r="349" spans="3:4">
       <c r="C349" s="17"/>
       <c r="D349" s="17"/>
     </row>
-    <row r="350" spans="3:4" ht="14.4">
+    <row r="350" spans="3:4">
       <c r="C350" s="17"/>
       <c r="D350" s="17"/>
     </row>
-    <row r="351" spans="3:4" ht="14.4">
+    <row r="351" spans="3:4">
       <c r="C351" s="17"/>
       <c r="D351" s="17"/>
     </row>
-    <row r="352" spans="3:4" ht="14.4">
+    <row r="352" spans="3:4">
       <c r="C352" s="17"/>
       <c r="D352" s="17"/>
     </row>
-    <row r="353" spans="3:4" ht="14.4">
+    <row r="353" spans="3:4">
       <c r="C353" s="17"/>
       <c r="D353" s="17"/>
     </row>
-    <row r="354" spans="3:4" ht="14.4">
+    <row r="354" spans="3:4">
       <c r="C354" s="17"/>
       <c r="D354" s="17"/>
     </row>
-    <row r="355" spans="3:4" ht="14.4">
+    <row r="355" spans="3:4">
       <c r="C355" s="17"/>
       <c r="D355" s="17"/>
     </row>
-    <row r="356" spans="3:4" ht="14.4">
+    <row r="356" spans="3:4">
       <c r="C356" s="17"/>
       <c r="D356" s="17"/>
     </row>
-    <row r="357" spans="3:4" ht="14.4">
+    <row r="357" spans="3:4">
       <c r="C357" s="17"/>
       <c r="D357" s="17"/>
     </row>
-    <row r="358" spans="3:4" ht="14.4">
+    <row r="358" spans="3:4">
       <c r="C358" s="17"/>
       <c r="D358" s="17"/>
     </row>
-    <row r="359" spans="3:4" ht="14.4">
+    <row r="359" spans="3:4">
       <c r="C359" s="17"/>
       <c r="D359" s="17"/>
     </row>
-    <row r="360" spans="3:4" ht="14.4">
+    <row r="360" spans="3:4">
       <c r="C360" s="17"/>
       <c r="D360" s="17"/>
     </row>
-    <row r="361" spans="3:4" ht="14.4">
+    <row r="361" spans="3:4">
       <c r="C361" s="17"/>
       <c r="D361" s="17"/>
     </row>
-    <row r="362" spans="3:4" ht="14.4">
+    <row r="362" spans="3:4">
       <c r="C362" s="17"/>
       <c r="D362" s="17"/>
     </row>
-    <row r="363" spans="3:4" ht="14.4">
+    <row r="363" spans="3:4">
       <c r="C363" s="17"/>
       <c r="D363" s="17"/>
     </row>
-    <row r="364" spans="3:4" ht="14.4">
+    <row r="364" spans="3:4">
       <c r="C364" s="17"/>
       <c r="D364" s="17"/>
     </row>
-    <row r="365" spans="3:4" ht="14.4">
+    <row r="365" spans="3:4">
       <c r="C365" s="17"/>
       <c r="D365" s="17"/>
     </row>
-    <row r="366" spans="3:4" ht="14.4">
+    <row r="366" spans="3:4">
       <c r="C366" s="17"/>
       <c r="D366" s="17"/>
     </row>
-    <row r="367" spans="3:4" ht="14.4">
+    <row r="367" spans="3:4">
       <c r="C367" s="17"/>
       <c r="D367" s="17"/>
     </row>
-    <row r="368" spans="3:4" ht="14.4">
+    <row r="368" spans="3:4">
       <c r="C368" s="17"/>
       <c r="D368" s="17"/>
     </row>
-    <row r="369" spans="3:4" ht="14.4">
+    <row r="369" spans="3:4">
       <c r="C369" s="17"/>
       <c r="D369" s="17"/>
     </row>
-    <row r="370" spans="3:4" ht="14.4">
+    <row r="370" spans="3:4">
       <c r="C370" s="17"/>
       <c r="D370" s="17"/>
     </row>
-    <row r="371" spans="3:4" ht="14.4">
+    <row r="371" spans="3:4">
       <c r="C371" s="17"/>
       <c r="D371" s="17"/>
     </row>
-    <row r="372" spans="3:4" ht="14.4">
+    <row r="372" spans="3:4">
       <c r="C372" s="17"/>
       <c r="D372" s="17"/>
     </row>
-    <row r="373" spans="3:4" ht="14.4">
+    <row r="373" spans="3:4">
       <c r="C373" s="17"/>
       <c r="D373" s="17"/>
     </row>
-    <row r="374" spans="3:4" ht="14.4">
+    <row r="374" spans="3:4">
       <c r="C374" s="17"/>
       <c r="D374" s="17"/>
     </row>
-    <row r="375" spans="3:4" ht="14.4">
+    <row r="375" spans="3:4">
       <c r="C375" s="17"/>
       <c r="D375" s="17"/>
     </row>
-    <row r="376" spans="3:4" ht="14.4">
+    <row r="376" spans="3:4">
       <c r="C376" s="17"/>
       <c r="D376" s="17"/>
     </row>
-    <row r="377" spans="3:4" ht="14.4">
+    <row r="377" spans="3:4">
       <c r="C377" s="17"/>
       <c r="D377" s="17"/>
     </row>
-    <row r="378" spans="3:4" ht="14.4">
+    <row r="378" spans="3:4">
       <c r="C378" s="17"/>
       <c r="D378" s="17"/>
     </row>
-    <row r="379" spans="3:4" ht="14.4">
+    <row r="379" spans="3:4">
       <c r="C379" s="17"/>
       <c r="D379" s="17"/>
     </row>
-    <row r="380" spans="3:4" ht="14.4">
+    <row r="380" spans="3:4">
       <c r="C380" s="17"/>
       <c r="D380" s="17"/>
     </row>
-    <row r="381" spans="3:4" ht="14.4">
+    <row r="381" spans="3:4">
       <c r="C381" s="17"/>
       <c r="D381" s="17"/>
     </row>
-    <row r="382" spans="3:4" ht="14.4">
+    <row r="382" spans="3:4">
       <c r="C382" s="17"/>
       <c r="D382" s="17"/>
     </row>
-    <row r="383" spans="3:4" ht="14.4">
+    <row r="383" spans="3:4">
       <c r="C383" s="17"/>
       <c r="D383" s="17"/>
     </row>
-    <row r="384" spans="3:4" ht="14.4">
+    <row r="384" spans="3:4">
       <c r="C384" s="17"/>
       <c r="D384" s="17"/>
     </row>
-    <row r="385" spans="3:4" ht="14.4">
+    <row r="385" spans="3:4">
       <c r="C385" s="17"/>
       <c r="D385" s="17"/>
     </row>
-    <row r="386" spans="3:4" ht="14.4">
+    <row r="386" spans="3:4">
       <c r="C386" s="17"/>
       <c r="D386" s="17"/>
     </row>
-    <row r="387" spans="3:4" ht="14.4">
+    <row r="387" spans="3:4">
       <c r="C387" s="17"/>
       <c r="D387" s="17"/>
     </row>
-    <row r="388" spans="3:4" ht="14.4">
+    <row r="388" spans="3:4">
       <c r="C388" s="17"/>
       <c r="D388" s="17"/>
     </row>
-    <row r="389" spans="3:4" ht="14.4">
+    <row r="389" spans="3:4">
       <c r="C389" s="17"/>
       <c r="D389" s="17"/>
     </row>
-    <row r="390" spans="3:4" ht="14.4">
+    <row r="390" spans="3:4">
       <c r="C390" s="17"/>
       <c r="D390" s="17"/>
     </row>
-    <row r="391" spans="3:4" ht="14.4">
+    <row r="391" spans="3:4">
       <c r="C391" s="17"/>
       <c r="D391" s="17"/>
     </row>
-    <row r="392" spans="3:4" ht="14.4">
+    <row r="392" spans="3:4">
       <c r="C392" s="17"/>
       <c r="D392" s="17"/>
     </row>
-    <row r="393" spans="3:4" ht="14.4">
+    <row r="393" spans="3:4">
       <c r="C393" s="17"/>
       <c r="D393" s="17"/>
     </row>
-    <row r="394" spans="3:4" ht="14.4">
+    <row r="394" spans="3:4">
       <c r="C394" s="17"/>
       <c r="D394" s="17"/>
     </row>
-    <row r="395" spans="3:4" ht="14.4">
+    <row r="395" spans="3:4">
       <c r="C395" s="17"/>
       <c r="D395" s="17"/>
     </row>
-    <row r="396" spans="3:4" ht="14.4">
+    <row r="396" spans="3:4">
       <c r="C396" s="17"/>
       <c r="D396" s="17"/>
     </row>
-    <row r="397" spans="3:4" ht="14.4">
+    <row r="397" spans="3:4">
       <c r="C397" s="17"/>
       <c r="D397" s="17"/>
     </row>
-    <row r="398" spans="3:4" ht="14.4">
+    <row r="398" spans="3:4">
       <c r="C398" s="17"/>
       <c r="D398" s="17"/>
     </row>
-    <row r="399" spans="3:4" ht="14.4">
+    <row r="399" spans="3:4">
       <c r="C399" s="17"/>
       <c r="D399" s="17"/>
     </row>
-    <row r="400" spans="3:4" ht="14.4">
+    <row r="400" spans="3:4">
       <c r="C400" s="17"/>
       <c r="D400" s="17"/>
     </row>
-    <row r="401" spans="3:4" ht="14.4">
+    <row r="401" spans="3:4">
       <c r="C401" s="17"/>
       <c r="D401" s="17"/>
     </row>
-    <row r="402" spans="3:4" ht="14.4">
+    <row r="402" spans="3:4">
       <c r="C402" s="17"/>
       <c r="D402" s="17"/>
     </row>
-    <row r="403" spans="3:4" ht="14.4">
+    <row r="403" spans="3:4">
       <c r="C403" s="17"/>
       <c r="D403" s="17"/>
     </row>
-    <row r="404" spans="3:4" ht="14.4">
+    <row r="404" spans="3:4">
       <c r="C404" s="17"/>
       <c r="D404" s="17"/>
     </row>
-    <row r="405" spans="3:4" ht="14.4">
+    <row r="405" spans="3:4">
       <c r="C405" s="17"/>
       <c r="D405" s="17"/>
     </row>
-    <row r="406" spans="3:4" ht="14.4">
+    <row r="406" spans="3:4">
       <c r="C406" s="17"/>
       <c r="D406" s="17"/>
     </row>
-    <row r="407" spans="3:4" ht="14.4">
+    <row r="407" spans="3:4">
       <c r="C407" s="17"/>
       <c r="D407" s="17"/>
     </row>
-    <row r="408" spans="3:4" ht="14.4">
+    <row r="408" spans="3:4">
       <c r="C408" s="17"/>
       <c r="D408" s="17"/>
     </row>
-    <row r="409" spans="3:4" ht="14.4">
+    <row r="409" spans="3:4">
       <c r="C409" s="17"/>
       <c r="D409" s="17"/>
     </row>
-    <row r="410" spans="3:4" ht="14.4">
+    <row r="410" spans="3:4">
       <c r="C410" s="17"/>
       <c r="D410" s="17"/>
     </row>
-    <row r="411" spans="3:4" ht="14.4">
+    <row r="411" spans="3:4">
       <c r="C411" s="17"/>
       <c r="D411" s="17"/>
     </row>
-    <row r="412" spans="3:4" ht="14.4">
+    <row r="412" spans="3:4">
       <c r="C412" s="17"/>
       <c r="D412" s="17"/>
     </row>
-    <row r="413" spans="3:4" ht="14.4">
+    <row r="413" spans="3:4">
       <c r="C413" s="17"/>
       <c r="D413" s="17"/>
     </row>
-    <row r="414" spans="3:4" ht="14.4">
+    <row r="414" spans="3:4">
       <c r="C414" s="17"/>
       <c r="D414" s="17"/>
     </row>
-    <row r="415" spans="3:4" ht="14.4">
+    <row r="415" spans="3:4">
       <c r="C415" s="17"/>
       <c r="D415" s="17"/>
     </row>
-    <row r="416" spans="3:4" ht="14.4">
+    <row r="416" spans="3:4">
       <c r="C416" s="17"/>
       <c r="D416" s="17"/>
     </row>
-    <row r="417" spans="3:4" ht="14.4">
+    <row r="417" spans="3:4">
       <c r="C417" s="17"/>
       <c r="D417" s="17"/>
     </row>
-    <row r="418" spans="3:4" ht="14.4">
+    <row r="418" spans="3:4">
       <c r="C418" s="17"/>
       <c r="D418" s="17"/>
     </row>
-    <row r="419" spans="3:4" ht="14.4">
+    <row r="419" spans="3:4">
       <c r="C419" s="17"/>
       <c r="D419" s="17"/>
     </row>
-    <row r="420" spans="3:4" ht="14.4">
+    <row r="420" spans="3:4">
       <c r="C420" s="17"/>
       <c r="D420" s="17"/>
     </row>
-    <row r="421" spans="3:4" ht="14.4">
+    <row r="421" spans="3:4">
       <c r="C421" s="17"/>
       <c r="D421" s="17"/>
     </row>
-    <row r="422" spans="3:4" ht="14.4">
+    <row r="422" spans="3:4">
       <c r="C422" s="17"/>
       <c r="D422" s="17"/>
     </row>
-    <row r="423" spans="3:4" ht="14.4">
+    <row r="423" spans="3:4">
       <c r="C423" s="17"/>
       <c r="D423" s="17"/>
     </row>
-    <row r="424" spans="3:4" ht="14.4">
+    <row r="424" spans="3:4">
       <c r="C424" s="17"/>
       <c r="D424" s="17"/>
     </row>
-    <row r="425" spans="3:4" ht="14.4">
+    <row r="425" spans="3:4">
       <c r="C425" s="17"/>
       <c r="D425" s="17"/>
     </row>
-    <row r="426" spans="3:4" ht="14.4">
+    <row r="426" spans="3:4">
       <c r="C426" s="17"/>
       <c r="D426" s="17"/>
     </row>
-    <row r="427" spans="3:4" ht="14.4">
+    <row r="427" spans="3:4">
       <c r="C427" s="17"/>
       <c r="D427" s="17"/>
     </row>
-    <row r="428" spans="3:4" ht="14.4">
+    <row r="428" spans="3:4">
       <c r="C428" s="17"/>
       <c r="D428" s="17"/>
     </row>
-    <row r="429" spans="3:4" ht="14.4">
+    <row r="429" spans="3:4">
       <c r="C429" s="17"/>
       <c r="D429" s="17"/>
     </row>
-    <row r="430" spans="3:4" ht="14.4">
+    <row r="430" spans="3:4">
       <c r="C430" s="17"/>
       <c r="D430" s="17"/>
     </row>
-    <row r="431" spans="3:4" ht="14.4">
+    <row r="431" spans="3:4">
       <c r="C431" s="17"/>
       <c r="D431" s="17"/>
     </row>
-    <row r="432" spans="3:4" ht="14.4">
+    <row r="432" spans="3:4">
       <c r="C432" s="17"/>
       <c r="D432" s="17"/>
     </row>
-    <row r="433" spans="3:4" ht="14.4">
+    <row r="433" spans="3:4">
       <c r="C433" s="17"/>
       <c r="D433" s="17"/>
     </row>
-    <row r="434" spans="3:4" ht="14.4">
+    <row r="434" spans="3:4">
       <c r="C434" s="17"/>
       <c r="D434" s="17"/>
     </row>
-    <row r="435" spans="3:4" ht="14.4">
+    <row r="435" spans="3:4">
       <c r="C435" s="17"/>
       <c r="D435" s="17"/>
     </row>
-    <row r="436" spans="3:4" ht="14.4">
+    <row r="436" spans="3:4">
       <c r="C436" s="17"/>
       <c r="D436" s="17"/>
     </row>
-    <row r="437" spans="3:4" ht="14.4">
+    <row r="437" spans="3:4">
       <c r="C437" s="17"/>
       <c r="D437" s="17"/>
     </row>
-    <row r="438" spans="3:4" ht="14.4">
+    <row r="438" spans="3:4">
       <c r="C438" s="17"/>
       <c r="D438" s="17"/>
     </row>
-    <row r="439" spans="3:4" ht="14.4">
+    <row r="439" spans="3:4">
       <c r="C439" s="17"/>
       <c r="D439" s="17"/>
     </row>
-    <row r="440" spans="3:4" ht="14.4">
+    <row r="440" spans="3:4">
       <c r="C440" s="17"/>
       <c r="D440" s="17"/>
     </row>
-    <row r="441" spans="3:4" ht="14.4">
+    <row r="441" spans="3:4">
       <c r="C441" s="17"/>
       <c r="D441" s="17"/>
     </row>
-    <row r="442" spans="3:4" ht="14.4">
+    <row r="442" spans="3:4">
       <c r="C442" s="17"/>
       <c r="D442" s="17"/>
     </row>
-    <row r="443" spans="3:4" ht="14.4">
+    <row r="443" spans="3:4">
       <c r="C443" s="17"/>
       <c r="D443" s="17"/>
     </row>
-    <row r="444" spans="3:4" ht="14.4">
+    <row r="444" spans="3:4">
       <c r="C444" s="17"/>
       <c r="D444" s="17"/>
     </row>
-    <row r="445" spans="3:4" ht="14.4">
+    <row r="445" spans="3:4">
       <c r="C445" s="17"/>
       <c r="D445" s="17"/>
     </row>
-    <row r="446" spans="3:4" ht="14.4">
+    <row r="446" spans="3:4">
       <c r="C446" s="17"/>
       <c r="D446" s="17"/>
     </row>
-    <row r="447" spans="3:4" ht="14.4">
+    <row r="447" spans="3:4">
       <c r="C447" s="17"/>
       <c r="D447" s="17"/>
     </row>
-    <row r="448" spans="3:4" ht="14.4">
+    <row r="448" spans="3:4">
       <c r="C448" s="17"/>
       <c r="D448" s="17"/>
     </row>
-    <row r="449" spans="3:4" ht="14.4">
+    <row r="449" spans="3:4">
       <c r="C449" s="17"/>
       <c r="D449" s="17"/>
     </row>
-    <row r="450" spans="3:4" ht="14.4">
+    <row r="450" spans="3:4">
       <c r="C450" s="17"/>
       <c r="D450" s="17"/>
     </row>
-    <row r="451" spans="3:4" ht="14.4">
+    <row r="451" spans="3:4">
       <c r="C451" s="17"/>
       <c r="D451" s="17"/>
     </row>
-    <row r="452" spans="3:4" ht="14.4">
+    <row r="452" spans="3:4">
       <c r="C452" s="17"/>
       <c r="D452" s="17"/>
     </row>
-    <row r="453" spans="3:4" ht="14.4">
+    <row r="453" spans="3:4">
       <c r="C453" s="17"/>
       <c r="D453" s="17"/>
     </row>
-    <row r="454" spans="3:4" ht="14.4">
+    <row r="454" spans="3:4">
       <c r="C454" s="17"/>
       <c r="D454" s="17"/>
     </row>
-    <row r="455" spans="3:4" ht="14.4">
+    <row r="455" spans="3:4">
       <c r="C455" s="17"/>
       <c r="D455" s="17"/>
     </row>
-    <row r="456" spans="3:4" ht="14.4">
+    <row r="456" spans="3:4">
       <c r="C456" s="17"/>
       <c r="D456" s="17"/>
     </row>
-    <row r="457" spans="3:4" ht="14.4">
+    <row r="457" spans="3:4">
       <c r="C457" s="17"/>
       <c r="D457" s="17"/>
     </row>
-    <row r="458" spans="3:4" ht="14.4">
+    <row r="458" spans="3:4">
       <c r="C458" s="17"/>
       <c r="D458" s="17"/>
     </row>
-    <row r="459" spans="3:4" ht="14.4">
+    <row r="459" spans="3:4">
       <c r="C459" s="17"/>
       <c r="D459" s="17"/>
     </row>
-    <row r="460" spans="3:4" ht="14.4">
+    <row r="460" spans="3:4">
       <c r="C460" s="17"/>
       <c r="D460" s="17"/>
     </row>
-    <row r="461" spans="3:4" ht="14.4">
+    <row r="461" spans="3:4">
       <c r="C461" s="17"/>
       <c r="D461" s="17"/>
     </row>
-    <row r="462" spans="3:4" ht="14.4">
+    <row r="462" spans="3:4">
       <c r="C462" s="17"/>
       <c r="D462" s="17"/>
     </row>
-    <row r="463" spans="3:4" ht="14.4">
+    <row r="463" spans="3:4">
       <c r="C463" s="17"/>
       <c r="D463" s="17"/>
     </row>
-    <row r="464" spans="3:4" ht="14.4">
+    <row r="464" spans="3:4">
       <c r="C464" s="17"/>
       <c r="D464" s="17"/>
     </row>
-    <row r="465" spans="3:4" ht="14.4">
+    <row r="465" spans="3:4">
       <c r="C465" s="17"/>
       <c r="D465" s="17"/>
     </row>
-    <row r="466" spans="3:4" ht="14.4">
+    <row r="466" spans="3:4">
       <c r="C466" s="17"/>
       <c r="D466" s="17"/>
     </row>
-    <row r="467" spans="3:4" ht="14.4">
+    <row r="467" spans="3:4">
       <c r="C467" s="17"/>
       <c r="D467" s="17"/>
     </row>
-    <row r="468" spans="3:4" ht="14.4">
+    <row r="468" spans="3:4">
       <c r="C468" s="17"/>
       <c r="D468" s="17"/>
     </row>
-    <row r="469" spans="3:4" ht="14.4">
+    <row r="469" spans="3:4">
       <c r="C469" s="17"/>
       <c r="D469" s="17"/>
     </row>
-    <row r="470" spans="3:4" ht="14.4">
+    <row r="470" spans="3:4">
       <c r="C470" s="17"/>
       <c r="D470" s="17"/>
     </row>
-    <row r="471" spans="3:4" ht="14.4">
+    <row r="471" spans="3:4">
       <c r="C471" s="17"/>
       <c r="D471" s="17"/>
     </row>
-    <row r="472" spans="3:4" ht="14.4">
+    <row r="472" spans="3:4">
       <c r="C472" s="17"/>
       <c r="D472" s="17"/>
     </row>
-    <row r="473" spans="3:4" ht="14.4">
+    <row r="473" spans="3:4">
       <c r="C473" s="17"/>
       <c r="D473" s="17"/>
     </row>
-    <row r="474" spans="3:4" ht="14.4">
+    <row r="474" spans="3:4">
       <c r="C474" s="17"/>
       <c r="D474" s="17"/>
     </row>
-    <row r="475" spans="3:4" ht="14.4">
+    <row r="475" spans="3:4">
       <c r="C475" s="17"/>
       <c r="D475" s="17"/>
     </row>
-    <row r="476" spans="3:4" ht="14.4">
+    <row r="476" spans="3:4">
       <c r="C476" s="17"/>
       <c r="D476" s="17"/>
     </row>
-    <row r="477" spans="3:4" ht="14.4">
+    <row r="477" spans="3:4">
       <c r="C477" s="17"/>
       <c r="D477" s="17"/>
     </row>
-    <row r="478" spans="3:4" ht="14.4">
+    <row r="478" spans="3:4">
       <c r="C478" s="17"/>
       <c r="D478" s="17"/>
     </row>
-    <row r="479" spans="3:4" ht="14.4">
+    <row r="479" spans="3:4">
       <c r="C479" s="17"/>
       <c r="D479" s="17"/>
     </row>
-    <row r="480" spans="3:4" ht="14.4">
+    <row r="480" spans="3:4">
       <c r="C480" s="17"/>
       <c r="D480" s="17"/>
     </row>
-    <row r="481" spans="3:4" ht="14.4">
+    <row r="481" spans="3:4">
       <c r="C481" s="17"/>
       <c r="D481" s="17"/>
     </row>
-    <row r="482" spans="3:4" ht="14.4">
+    <row r="482" spans="3:4">
       <c r="C482" s="17"/>
       <c r="D482" s="17"/>
     </row>
-    <row r="483" spans="3:4" ht="14.4">
+    <row r="483" spans="3:4">
       <c r="C483" s="17"/>
       <c r="D483" s="17"/>
     </row>
-    <row r="484" spans="3:4" ht="14.4">
+    <row r="484" spans="3:4">
       <c r="C484" s="17"/>
       <c r="D484" s="17"/>
     </row>
-    <row r="485" spans="3:4" ht="14.4">
+    <row r="485" spans="3:4">
       <c r="C485" s="17"/>
       <c r="D485" s="17"/>
     </row>
-    <row r="486" spans="3:4" ht="14.4">
+    <row r="486" spans="3:4">
       <c r="C486" s="17"/>
       <c r="D486" s="17"/>
     </row>
-    <row r="487" spans="3:4" ht="14.4">
+    <row r="487" spans="3:4">
       <c r="C487" s="17"/>
       <c r="D487" s="17"/>
     </row>
-    <row r="488" spans="3:4" ht="14.4">
+    <row r="488" spans="3:4">
       <c r="C488" s="17"/>
       <c r="D488" s="17"/>
     </row>
-    <row r="489" spans="3:4" ht="14.4">
+    <row r="489" spans="3:4">
       <c r="C489" s="17"/>
       <c r="D489" s="17"/>
     </row>
-    <row r="490" spans="3:4" ht="14.4">
+    <row r="490" spans="3:4">
       <c r="C490" s="17"/>
       <c r="D490" s="17"/>
     </row>
-    <row r="491" spans="3:4" ht="14.4">
+    <row r="491" spans="3:4">
       <c r="C491" s="17"/>
       <c r="D491" s="17"/>
     </row>
-    <row r="492" spans="3:4" ht="14.4">
+    <row r="492" spans="3:4">
       <c r="C492" s="17"/>
       <c r="D492" s="17"/>
     </row>
-    <row r="493" spans="3:4" ht="14.4">
+    <row r="493" spans="3:4">
       <c r="C493" s="17"/>
       <c r="D493" s="17"/>
     </row>
-    <row r="494" spans="3:4" ht="14.4">
+    <row r="494" spans="3:4">
       <c r="C494" s="17"/>
       <c r="D494" s="17"/>
     </row>
-    <row r="495" spans="3:4" ht="14.4">
+    <row r="495" spans="3:4">
       <c r="C495" s="17"/>
       <c r="D495" s="17"/>
     </row>
-    <row r="496" spans="3:4" ht="14.4">
+    <row r="496" spans="3:4">
       <c r="C496" s="17"/>
       <c r="D496" s="17"/>
     </row>
-    <row r="497" spans="3:4" ht="14.4">
+    <row r="497" spans="3:4">
       <c r="C497" s="17"/>
       <c r="D497" s="17"/>
     </row>
-    <row r="498" spans="3:4" ht="14.4">
+    <row r="498" spans="3:4">
       <c r="C498" s="17"/>
       <c r="D498" s="17"/>
     </row>
-    <row r="499" spans="3:4" ht="14.4">
+    <row r="499" spans="3:4">
       <c r="C499" s="17"/>
       <c r="D499" s="17"/>
     </row>
-    <row r="500" spans="3:4" ht="14.4">
+    <row r="500" spans="3:4">
       <c r="C500" s="17"/>
       <c r="D500" s="17"/>
     </row>
-    <row r="501" spans="3:4" ht="14.4">
+    <row r="501" spans="3:4">
       <c r="C501" s="17"/>
       <c r="D501" s="17"/>
     </row>
-    <row r="502" spans="3:4" ht="14.4">
+    <row r="502" spans="3:4">
       <c r="C502" s="17"/>
       <c r="D502" s="17"/>
     </row>
-    <row r="503" spans="3:4" ht="14.4">
+    <row r="503" spans="3:4">
       <c r="C503" s="17"/>
       <c r="D503" s="17"/>
     </row>
-    <row r="504" spans="3:4" ht="14.4">
+    <row r="504" spans="3:4">
       <c r="C504" s="17"/>
       <c r="D504" s="17"/>
     </row>
-    <row r="505" spans="3:4" ht="14.4">
+    <row r="505" spans="3:4">
       <c r="C505" s="17"/>
       <c r="D505" s="17"/>
     </row>
-    <row r="506" spans="3:4" ht="14.4">
+    <row r="506" spans="3:4">
       <c r="C506" s="17"/>
       <c r="D506" s="17"/>
     </row>
-    <row r="507" spans="3:4" ht="14.4">
+    <row r="507" spans="3:4">
       <c r="C507" s="17"/>
       <c r="D507" s="17"/>
     </row>
-    <row r="508" spans="3:4" ht="14.4">
+    <row r="508" spans="3:4">
       <c r="C508" s="17"/>
       <c r="D508" s="17"/>
     </row>
-    <row r="509" spans="3:4" ht="14.4">
+    <row r="509" spans="3:4">
       <c r="C509" s="17"/>
       <c r="D509" s="17"/>
     </row>
-    <row r="510" spans="3:4" ht="14.4">
+    <row r="510" spans="3:4">
       <c r="C510" s="17"/>
       <c r="D510" s="17"/>
     </row>
-    <row r="511" spans="3:4" ht="14.4">
+    <row r="511" spans="3:4">
       <c r="C511" s="17"/>
       <c r="D511" s="17"/>
     </row>
-    <row r="512" spans="3:4" ht="14.4">
+    <row r="512" spans="3:4">
       <c r="C512" s="17"/>
       <c r="D512" s="17"/>
     </row>
-    <row r="513" spans="3:4" ht="14.4">
+    <row r="513" spans="3:4">
       <c r="C513" s="17"/>
       <c r="D513" s="17"/>
     </row>
-    <row r="514" spans="3:4" ht="14.4">
+    <row r="514" spans="3:4">
       <c r="C514" s="17"/>
       <c r="D514" s="17"/>
     </row>
-    <row r="515" spans="3:4" ht="14.4">
+    <row r="515" spans="3:4">
       <c r="C515" s="17"/>
       <c r="D515" s="17"/>
     </row>
-    <row r="516" spans="3:4" ht="14.4">
+    <row r="516" spans="3:4">
       <c r="C516" s="17"/>
       <c r="D516" s="17"/>
     </row>
-    <row r="517" spans="3:4" ht="14.4">
+    <row r="517" spans="3:4">
       <c r="C517" s="17"/>
       <c r="D517" s="17"/>
     </row>
-    <row r="518" spans="3:4" ht="14.4">
+    <row r="518" spans="3:4">
       <c r="C518" s="17"/>
       <c r="D518" s="17"/>
     </row>
-    <row r="519" spans="3:4" ht="14.4">
+    <row r="519" spans="3:4">
       <c r="C519" s="17"/>
       <c r="D519" s="17"/>
     </row>
-    <row r="520" spans="3:4" ht="14.4">
+    <row r="520" spans="3:4">
       <c r="C520" s="17"/>
       <c r="D520" s="17"/>
     </row>
-    <row r="521" spans="3:4" ht="14.4">
+    <row r="521" spans="3:4">
       <c r="C521" s="17"/>
       <c r="D521" s="17"/>
     </row>
-    <row r="522" spans="3:4" ht="14.4">
+    <row r="522" spans="3:4">
       <c r="C522" s="17"/>
       <c r="D522" s="17"/>
     </row>
-    <row r="523" spans="3:4" ht="14.4">
+    <row r="523" spans="3:4">
       <c r="C523" s="17"/>
       <c r="D523" s="17"/>
     </row>
-    <row r="524" spans="3:4" ht="14.4">
+    <row r="524" spans="3:4">
       <c r="C524" s="17"/>
       <c r="D524" s="17"/>
     </row>
-    <row r="525" spans="3:4" ht="14.4">
+    <row r="525" spans="3:4">
       <c r="C525" s="17"/>
       <c r="D525" s="17"/>
     </row>
-    <row r="526" spans="3:4" ht="14.4">
+    <row r="526" spans="3:4">
       <c r="C526" s="17"/>
       <c r="D526" s="17"/>
     </row>
-    <row r="527" spans="3:4" ht="14.4">
+    <row r="527" spans="3:4">
       <c r="C527" s="17"/>
       <c r="D527" s="17"/>
     </row>
-    <row r="528" spans="3:4" ht="14.4">
+    <row r="528" spans="3:4">
       <c r="C528" s="17"/>
       <c r="D528" s="17"/>
     </row>
-    <row r="529" spans="3:4" ht="14.4">
+    <row r="529" spans="3:4">
       <c r="C529" s="17"/>
       <c r="D529" s="17"/>
     </row>
-    <row r="530" spans="3:4" ht="14.4">
+    <row r="530" spans="3:4">
       <c r="C530" s="17"/>
       <c r="D530" s="17"/>
     </row>
-    <row r="531" spans="3:4" ht="14.4">
+    <row r="531" spans="3:4">
       <c r="C531" s="17"/>
       <c r="D531" s="17"/>
     </row>
-    <row r="532" spans="3:4" ht="14.4">
+    <row r="532" spans="3:4">
       <c r="C532" s="17"/>
       <c r="D532" s="17"/>
     </row>
-    <row r="533" spans="3:4" ht="14.4">
+    <row r="533" spans="3:4">
       <c r="C533" s="17"/>
       <c r="D533" s="17"/>
     </row>
-    <row r="534" spans="3:4" ht="14.4">
+    <row r="534" spans="3:4">
       <c r="C534" s="17"/>
       <c r="D534" s="17"/>
     </row>
-    <row r="535" spans="3:4" ht="14.4">
+    <row r="535" spans="3:4">
       <c r="C535" s="17"/>
       <c r="D535" s="17"/>
     </row>
-    <row r="536" spans="3:4" ht="14.4">
+    <row r="536" spans="3:4">
       <c r="C536" s="17"/>
       <c r="D536" s="17"/>
     </row>
-    <row r="537" spans="3:4" ht="14.4">
+    <row r="537" spans="3:4">
       <c r="C537" s="17"/>
       <c r="D537" s="17"/>
     </row>
-    <row r="538" spans="3:4" ht="14.4">
+    <row r="538" spans="3:4">
       <c r="C538" s="17"/>
       <c r="D538" s="17"/>
     </row>
-    <row r="539" spans="3:4" ht="14.4">
+    <row r="539" spans="3:4">
       <c r="C539" s="17"/>
       <c r="D539" s="17"/>
     </row>
-    <row r="540" spans="3:4" ht="14.4">
+    <row r="540" spans="3:4">
       <c r="C540" s="17"/>
       <c r="D540" s="17"/>
     </row>
-    <row r="541" spans="3:4" ht="14.4">
+    <row r="541" spans="3:4">
       <c r="C541" s="17"/>
       <c r="D541" s="17"/>
     </row>
-    <row r="542" spans="3:4" ht="14.4">
+    <row r="542" spans="3:4">
       <c r="C542" s="17"/>
       <c r="D542" s="17"/>
     </row>
-    <row r="543" spans="3:4" ht="14.4">
+    <row r="543" spans="3:4">
       <c r="C543" s="17"/>
       <c r="D543" s="17"/>
     </row>
-    <row r="544" spans="3:4" ht="14.4">
+    <row r="544" spans="3:4">
       <c r="C544" s="17"/>
       <c r="D544" s="17"/>
     </row>
-    <row r="545" spans="3:4" ht="14.4">
+    <row r="545" spans="3:4">
       <c r="C545" s="17"/>
       <c r="D545" s="17"/>
     </row>
-    <row r="546" spans="3:4" ht="14.4">
+    <row r="546" spans="3:4">
       <c r="C546" s="17"/>
       <c r="D546" s="17"/>
     </row>
-    <row r="547" spans="3:4" ht="14.4">
+    <row r="547" spans="3:4">
       <c r="C547" s="17"/>
       <c r="D547" s="17"/>
     </row>
-    <row r="548" spans="3:4" ht="14.4">
+    <row r="548" spans="3:4">
       <c r="C548" s="17"/>
       <c r="D548" s="17"/>
     </row>
-    <row r="549" spans="3:4" ht="14.4">
+    <row r="549" spans="3:4">
       <c r="C549" s="17"/>
       <c r="D549" s="17"/>
     </row>
-    <row r="550" spans="3:4" ht="14.4">
+    <row r="550" spans="3:4">
       <c r="C550" s="17"/>
       <c r="D550" s="17"/>
     </row>
-    <row r="551" spans="3:4" ht="14.4">
+    <row r="551" spans="3:4">
       <c r="C551" s="17"/>
       <c r="D551" s="17"/>
     </row>
-    <row r="552" spans="3:4" ht="14.4">
+    <row r="552" spans="3:4">
       <c r="C552" s="17"/>
       <c r="D552" s="17"/>
     </row>
-    <row r="553" spans="3:4" ht="14.4">
+    <row r="553" spans="3:4">
       <c r="C553" s="17"/>
       <c r="D553" s="17"/>
     </row>
-    <row r="554" spans="3:4" ht="14.4">
+    <row r="554" spans="3:4">
       <c r="C554" s="17"/>
       <c r="D554" s="17"/>
     </row>
-    <row r="555" spans="3:4" ht="14.4">
+    <row r="555" spans="3:4">
       <c r="C555" s="17"/>
       <c r="D555" s="17"/>
     </row>
-    <row r="556" spans="3:4" ht="14.4">
+    <row r="556" spans="3:4">
       <c r="C556" s="17"/>
       <c r="D556" s="17"/>
     </row>
-    <row r="557" spans="3:4" ht="14.4">
+    <row r="557" spans="3:4">
       <c r="C557" s="17"/>
       <c r="D557" s="17"/>
     </row>
-    <row r="558" spans="3:4" ht="14.4">
+    <row r="558" spans="3:4">
       <c r="C558" s="17"/>
       <c r="D558" s="17"/>
     </row>
-    <row r="559" spans="3:4" ht="14.4">
+    <row r="559" spans="3:4">
       <c r="C559" s="17"/>
       <c r="D559" s="17"/>
     </row>
-    <row r="560" spans="3:4" ht="14.4">
+    <row r="560" spans="3:4">
       <c r="C560" s="17"/>
       <c r="D560" s="17"/>
     </row>
-    <row r="561" spans="3:4" ht="14.4">
+    <row r="561" spans="3:4">
       <c r="C561" s="17"/>
       <c r="D561" s="17"/>
     </row>
-    <row r="562" spans="3:4" ht="14.4">
+    <row r="562" spans="3:4">
       <c r="C562" s="17"/>
       <c r="D562" s="17"/>
     </row>
-    <row r="563" spans="3:4" ht="14.4">
+    <row r="563" spans="3:4">
       <c r="C563" s="17"/>
       <c r="D563" s="17"/>
     </row>
-    <row r="564" spans="3:4" ht="14.4">
+    <row r="564" spans="3:4">
       <c r="C564" s="17"/>
       <c r="D564" s="17"/>
     </row>
-    <row r="565" spans="3:4" ht="14.4">
+    <row r="565" spans="3:4">
       <c r="C565" s="17"/>
       <c r="D565" s="17"/>
     </row>
-    <row r="566" spans="3:4" ht="14.4">
+    <row r="566" spans="3:4">
       <c r="C566" s="17"/>
       <c r="D566" s="17"/>
     </row>
-    <row r="567" spans="3:4" ht="14.4">
+    <row r="567" spans="3:4">
       <c r="C567" s="17"/>
       <c r="D567" s="17"/>
     </row>
-    <row r="568" spans="3:4" ht="14.4">
+    <row r="568" spans="3:4">
       <c r="C568" s="17"/>
       <c r="D568" s="17"/>
     </row>
-    <row r="569" spans="3:4" ht="14.4">
+    <row r="569" spans="3:4">
       <c r="C569" s="17"/>
       <c r="D569" s="17"/>
     </row>
-    <row r="570" spans="3:4" ht="14.4">
+    <row r="570" spans="3:4">
       <c r="C570" s="17"/>
       <c r="D570" s="17"/>
     </row>
-    <row r="571" spans="3:4" ht="14.4">
+    <row r="571" spans="3:4">
       <c r="C571" s="17"/>
       <c r="D571" s="17"/>
     </row>
-    <row r="572" spans="3:4" ht="14.4">
+    <row r="572" spans="3:4">
       <c r="C572" s="17"/>
       <c r="D572" s="17"/>
     </row>
-    <row r="573" spans="3:4" ht="14.4">
+    <row r="573" spans="3:4">
       <c r="C573" s="17"/>
       <c r="D573" s="17"/>
     </row>
-    <row r="574" spans="3:4" ht="14.4">
+    <row r="574" spans="3:4">
       <c r="C574" s="17"/>
       <c r="D574" s="17"/>
     </row>
-    <row r="575" spans="3:4" ht="14.4">
+    <row r="575" spans="3:4">
       <c r="C575" s="17"/>
       <c r="D575" s="17"/>
     </row>
-    <row r="576" spans="3:4" ht="14.4">
+    <row r="576" spans="3:4">
       <c r="C576" s="17"/>
       <c r="D576" s="17"/>
     </row>
-    <row r="577" spans="3:4" ht="14.4">
+    <row r="577" spans="3:4">
       <c r="C577" s="17"/>
       <c r="D577" s="17"/>
     </row>
-    <row r="578" spans="3:4" ht="14.4">
+    <row r="578" spans="3:4">
       <c r="C578" s="17"/>
       <c r="D578" s="17"/>
     </row>
-    <row r="579" spans="3:4" ht="14.4">
+    <row r="579" spans="3:4">
       <c r="C579" s="17"/>
       <c r="D579" s="17"/>
     </row>
-    <row r="580" spans="3:4" ht="14.4">
+    <row r="580" spans="3:4">
       <c r="C580" s="17"/>
       <c r="D580" s="17"/>
     </row>
-    <row r="581" spans="3:4" ht="14.4">
+    <row r="581" spans="3:4">
       <c r="C581" s="17"/>
       <c r="D581" s="17"/>
     </row>
-    <row r="582" spans="3:4" ht="14.4">
+    <row r="582" spans="3:4">
       <c r="C582" s="17"/>
       <c r="D582" s="17"/>
     </row>
-    <row r="583" spans="3:4" ht="14.4">
+    <row r="583" spans="3:4">
       <c r="C583" s="17"/>
       <c r="D583" s="17"/>
     </row>
-    <row r="584" spans="3:4" ht="14.4">
+    <row r="584" spans="3:4">
       <c r="C584" s="17"/>
       <c r="D584" s="17"/>
     </row>
-    <row r="585" spans="3:4" ht="14.4">
+    <row r="585" spans="3:4">
       <c r="C585" s="17"/>
       <c r="D585" s="17"/>
     </row>
-    <row r="586" spans="3:4" ht="14.4">
+    <row r="586" spans="3:4">
       <c r="C586" s="17"/>
       <c r="D586" s="17"/>
     </row>
-    <row r="587" spans="3:4" ht="14.4">
+    <row r="587" spans="3:4">
       <c r="C587" s="17"/>
       <c r="D587" s="17"/>
     </row>
-    <row r="588" spans="3:4" ht="14.4">
+    <row r="588" spans="3:4">
       <c r="C588" s="17"/>
       <c r="D588" s="17"/>
     </row>
-    <row r="589" spans="3:4" ht="14.4">
+    <row r="589" spans="3:4">
       <c r="C589" s="17"/>
       <c r="D589" s="17"/>
     </row>
-    <row r="590" spans="3:4" ht="14.4">
+    <row r="590" spans="3:4">
       <c r="C590" s="17"/>
       <c r="D590" s="17"/>
     </row>
-    <row r="591" spans="3:4" ht="14.4">
+    <row r="591" spans="3:4">
       <c r="C591" s="17"/>
       <c r="D591" s="17"/>
     </row>
-    <row r="592" spans="3:4" ht="14.4">
+    <row r="592" spans="3:4">
       <c r="C592" s="17"/>
       <c r="D592" s="17"/>
     </row>
-    <row r="593" spans="3:4" ht="14.4">
+    <row r="593" spans="3:4">
       <c r="C593" s="17"/>
       <c r="D593" s="17"/>
     </row>
-    <row r="594" spans="3:4" ht="14.4">
+    <row r="594" spans="3:4">
       <c r="C594" s="17"/>
       <c r="D594" s="17"/>
     </row>
-    <row r="595" spans="3:4" ht="14.4">
+    <row r="595" spans="3:4">
       <c r="C595" s="17"/>
       <c r="D595" s="17"/>
     </row>
-    <row r="596" spans="3:4" ht="14.4">
+    <row r="596" spans="3:4">
       <c r="C596" s="17"/>
       <c r="D596" s="17"/>
     </row>
-    <row r="597" spans="3:4" ht="14.4">
+    <row r="597" spans="3:4">
       <c r="C597" s="17"/>
       <c r="D597" s="17"/>
     </row>
-    <row r="598" spans="3:4" ht="14.4">
+    <row r="598" spans="3:4">
       <c r="C598" s="17"/>
       <c r="D598" s="17"/>
     </row>
-    <row r="599" spans="3:4" ht="14.4">
+    <row r="599" spans="3:4">
       <c r="C599" s="17"/>
       <c r="D599" s="17"/>
     </row>
-    <row r="600" spans="3:4" ht="14.4">
+    <row r="600" spans="3:4">
       <c r="C600" s="17"/>
       <c r="D600" s="17"/>
     </row>
-    <row r="601" spans="3:4" ht="14.4">
+    <row r="601" spans="3:4">
       <c r="C601" s="17"/>
       <c r="D601" s="17"/>
     </row>
-    <row r="602" spans="3:4" ht="14.4">
+    <row r="602" spans="3:4">
       <c r="C602" s="17"/>
       <c r="D602" s="17"/>
     </row>
-    <row r="603" spans="3:4" ht="14.4">
+    <row r="603" spans="3:4">
       <c r="C603" s="17"/>
       <c r="D603" s="17"/>
     </row>
-    <row r="604" spans="3:4" ht="14.4">
+    <row r="604" spans="3:4">
       <c r="C604" s="17"/>
       <c r="D604" s="17"/>
     </row>
-    <row r="605" spans="3:4" ht="14.4">
+    <row r="605" spans="3:4">
       <c r="C605" s="17"/>
       <c r="D605" s="17"/>
     </row>
-    <row r="606" spans="3:4" ht="14.4">
+    <row r="606" spans="3:4">
       <c r="C606" s="17"/>
       <c r="D606" s="17"/>
     </row>
-    <row r="607" spans="3:4" ht="14.4">
+    <row r="607" spans="3:4">
       <c r="C607" s="17"/>
       <c r="D607" s="17"/>
     </row>
-    <row r="608" spans="3:4" ht="14.4">
+    <row r="608" spans="3:4">
       <c r="C608" s="17"/>
       <c r="D608" s="17"/>
     </row>
-    <row r="609" spans="3:4" ht="14.4">
+    <row r="609" spans="3:4">
       <c r="C609" s="17"/>
       <c r="D609" s="17"/>
     </row>
-    <row r="610" spans="3:4" ht="14.4">
+    <row r="610" spans="3:4">
       <c r="C610" s="17"/>
       <c r="D610" s="17"/>
     </row>
-    <row r="611" spans="3:4" ht="14.4">
+    <row r="611" spans="3:4">
       <c r="C611" s="17"/>
       <c r="D611" s="17"/>
     </row>
-    <row r="612" spans="3:4" ht="14.4">
+    <row r="612" spans="3:4">
       <c r="C612" s="17"/>
       <c r="D612" s="17"/>
     </row>
-    <row r="613" spans="3:4" ht="14.4">
+    <row r="613" spans="3:4">
       <c r="C613" s="17"/>
       <c r="D613" s="17"/>
     </row>
-    <row r="614" spans="3:4" ht="14.4">
+    <row r="614" spans="3:4">
       <c r="C614" s="17"/>
       <c r="D614" s="17"/>
     </row>
-    <row r="615" spans="3:4" ht="14.4">
+    <row r="615" spans="3:4">
       <c r="C615" s="17"/>
       <c r="D615" s="17"/>
     </row>
-    <row r="616" spans="3:4" ht="14.4">
+    <row r="616" spans="3:4">
       <c r="C616" s="17"/>
       <c r="D616" s="17"/>
     </row>
-    <row r="617" spans="3:4" ht="14.4">
+    <row r="617" spans="3:4">
       <c r="C617" s="17"/>
       <c r="D617" s="17"/>
     </row>
-    <row r="618" spans="3:4" ht="14.4">
+    <row r="618" spans="3:4">
       <c r="C618" s="17"/>
       <c r="D618" s="17"/>
     </row>
-    <row r="619" spans="3:4" ht="14.4">
+    <row r="619" spans="3:4">
       <c r="C619" s="17"/>
       <c r="D619" s="17"/>
     </row>
-    <row r="620" spans="3:4" ht="14.4">
+    <row r="620" spans="3:4">
       <c r="C620" s="17"/>
       <c r="D620" s="17"/>
     </row>
-    <row r="621" spans="3:4" ht="14.4">
+    <row r="621" spans="3:4">
       <c r="C621" s="17"/>
       <c r="D621" s="17"/>
     </row>
-    <row r="622" spans="3:4" ht="14.4">
+    <row r="622" spans="3:4">
       <c r="C622" s="17"/>
       <c r="D622" s="17"/>
     </row>
-    <row r="623" spans="3:4" ht="14.4">
+    <row r="623" spans="3:4">
       <c r="C623" s="17"/>
       <c r="D623" s="17"/>
     </row>
-    <row r="624" spans="3:4" ht="14.4">
+    <row r="624" spans="3:4">
       <c r="C624" s="17"/>
       <c r="D624" s="17"/>
     </row>
-    <row r="625" spans="3:4" ht="14.4">
+    <row r="625" spans="3:4">
       <c r="C625" s="17"/>
       <c r="D625" s="17"/>
     </row>
-    <row r="626" spans="3:4" ht="14.4">
+    <row r="626" spans="3:4">
       <c r="C626" s="17"/>
       <c r="D626" s="17"/>
     </row>
-    <row r="627" spans="3:4" ht="14.4">
+    <row r="627" spans="3:4">
       <c r="C627" s="17"/>
       <c r="D627" s="17"/>
     </row>
-    <row r="628" spans="3:4" ht="14.4">
+    <row r="628" spans="3:4">
       <c r="C628" s="17"/>
       <c r="D628" s="17"/>
     </row>
-    <row r="629" spans="3:4" ht="14.4">
+    <row r="629" spans="3:4">
       <c r="C629" s="17"/>
       <c r="D629" s="17"/>
     </row>
-    <row r="630" spans="3:4" ht="14.4">
+    <row r="630" spans="3:4">
       <c r="C630" s="17"/>
       <c r="D630" s="17"/>
     </row>
-    <row r="631" spans="3:4" ht="14.4">
+    <row r="631" spans="3:4">
       <c r="C631" s="17"/>
       <c r="D631" s="17"/>
     </row>
-    <row r="632" spans="3:4" ht="14.4">
+    <row r="632" spans="3:4">
       <c r="C632" s="17"/>
       <c r="D632" s="17"/>
     </row>
-    <row r="633" spans="3:4" ht="14.4">
+    <row r="633" spans="3:4">
       <c r="C633" s="17"/>
       <c r="D633" s="17"/>
     </row>
-    <row r="634" spans="3:4" ht="14.4">
+    <row r="634" spans="3:4">
       <c r="C634" s="17"/>
       <c r="D634" s="17"/>
     </row>
-    <row r="635" spans="3:4" ht="14.4">
+    <row r="635" spans="3:4">
       <c r="C635" s="17"/>
       <c r="D635" s="17"/>
     </row>
-    <row r="636" spans="3:4" ht="14.4">
+    <row r="636" spans="3:4">
       <c r="C636" s="17"/>
       <c r="D636" s="17"/>
     </row>
-    <row r="637" spans="3:4" ht="14.4">
+    <row r="637" spans="3:4">
       <c r="C637" s="17"/>
       <c r="D637" s="17"/>
     </row>
-    <row r="638" spans="3:4" ht="14.4">
+    <row r="638" spans="3:4">
       <c r="C638" s="17"/>
       <c r="D638" s="17"/>
     </row>
-    <row r="639" spans="3:4" ht="14.4">
+    <row r="639" spans="3:4">
       <c r="C639" s="17"/>
       <c r="D639" s="17"/>
     </row>
-    <row r="640" spans="3:4" ht="14.4">
+    <row r="640" spans="3:4">
       <c r="C640" s="17"/>
       <c r="D640" s="17"/>
     </row>
-    <row r="641" spans="3:4" ht="14.4">
+    <row r="641" spans="3:4">
       <c r="C641" s="17"/>
       <c r="D641" s="17"/>
     </row>
-    <row r="642" spans="3:4" ht="14.4">
+    <row r="642" spans="3:4">
       <c r="C642" s="17"/>
       <c r="D642" s="17"/>
     </row>
-    <row r="643" spans="3:4" ht="14.4">
+    <row r="643" spans="3:4">
       <c r="C643" s="17"/>
       <c r="D643" s="17"/>
     </row>
-    <row r="644" spans="3:4" ht="14.4">
+    <row r="644" spans="3:4">
       <c r="C644" s="17"/>
       <c r="D644" s="17"/>
     </row>
-    <row r="645" spans="3:4" ht="14.4">
+    <row r="645" spans="3:4">
       <c r="C645" s="17"/>
       <c r="D645" s="17"/>
     </row>
-    <row r="646" spans="3:4" ht="14.4">
+    <row r="646" spans="3:4">
       <c r="C646" s="17"/>
       <c r="D646" s="17"/>
     </row>
-    <row r="647" spans="3:4" ht="14.4">
+    <row r="647" spans="3:4">
       <c r="C647" s="17"/>
       <c r="D647" s="17"/>
     </row>
-    <row r="648" spans="3:4" ht="14.4">
+    <row r="648" spans="3:4">
       <c r="C648" s="17"/>
       <c r="D648" s="17"/>
     </row>
-    <row r="649" spans="3:4" ht="14.4">
+    <row r="649" spans="3:4">
       <c r="C649" s="17"/>
       <c r="D649" s="17"/>
     </row>
-    <row r="650" spans="3:4" ht="14.4">
+    <row r="650" spans="3:4">
       <c r="C650" s="17"/>
       <c r="D650" s="17"/>
     </row>
-    <row r="651" spans="3:4" ht="14.4">
+    <row r="651" spans="3:4">
       <c r="C651" s="17"/>
       <c r="D651" s="17"/>
     </row>
-    <row r="652" spans="3:4" ht="14.4">
+    <row r="652" spans="3:4">
       <c r="C652" s="17"/>
       <c r="D652" s="17"/>
     </row>
-    <row r="653" spans="3:4" ht="14.4">
+    <row r="653" spans="3:4">
       <c r="C653" s="17"/>
       <c r="D653" s="17"/>
     </row>
-    <row r="654" spans="3:4" ht="14.4">
+    <row r="654" spans="3:4">
       <c r="C654" s="17"/>
       <c r="D654" s="17"/>
     </row>
-    <row r="655" spans="3:4" ht="14.4">
+    <row r="655" spans="3:4">
       <c r="C655" s="17"/>
       <c r="D655" s="17"/>
     </row>
-    <row r="656" spans="3:4" ht="14.4">
+    <row r="656" spans="3:4">
       <c r="C656" s="17"/>
       <c r="D656" s="17"/>
     </row>
-    <row r="657" spans="3:4" ht="14.4">
+    <row r="657" spans="3:4">
       <c r="C657" s="17"/>
       <c r="D657" s="17"/>
     </row>
-    <row r="658" spans="3:4" ht="14.4">
+    <row r="658" spans="3:4">
       <c r="C658" s="17"/>
       <c r="D658" s="17"/>
     </row>
-    <row r="659" spans="3:4" ht="14.4">
+    <row r="659" spans="3:4">
       <c r="C659" s="17"/>
       <c r="D659" s="17"/>
     </row>
-    <row r="660" spans="3:4" ht="14.4">
+    <row r="660" spans="3:4">
       <c r="C660" s="17"/>
       <c r="D660" s="17"/>
     </row>
-    <row r="661" spans="3:4" ht="14.4">
+    <row r="661" spans="3:4">
       <c r="C661" s="17"/>
       <c r="D661" s="17"/>
     </row>
-    <row r="662" spans="3:4" ht="14.4">
+    <row r="662" spans="3:4">
       <c r="C662" s="17"/>
       <c r="D662" s="17"/>
     </row>
-    <row r="663" spans="3:4" ht="14.4">
+    <row r="663" spans="3:4">
       <c r="C663" s="17"/>
       <c r="D663" s="17"/>
     </row>
-    <row r="664" spans="3:4" ht="14.4">
+    <row r="664" spans="3:4">
       <c r="C664" s="17"/>
       <c r="D664" s="17"/>
     </row>
-    <row r="665" spans="3:4" ht="14.4">
+    <row r="665" spans="3:4">
       <c r="C665" s="17"/>
       <c r="D665" s="17"/>
     </row>
-    <row r="666" spans="3:4" ht="14.4">
+    <row r="666" spans="3:4">
       <c r="C666" s="17"/>
       <c r="D666" s="17"/>
     </row>
-    <row r="667" spans="3:4" ht="14.4">
+    <row r="667" spans="3:4">
       <c r="C667" s="17"/>
       <c r="D667" s="17"/>
     </row>
-    <row r="668" spans="3:4" ht="14.4">
+    <row r="668" spans="3:4">
       <c r="C668" s="17"/>
       <c r="D668" s="17"/>
     </row>
-    <row r="669" spans="3:4" ht="14.4">
+    <row r="669" spans="3:4">
       <c r="C669" s="17"/>
       <c r="D669" s="17"/>
     </row>
-    <row r="670" spans="3:4" ht="14.4">
+    <row r="670" spans="3:4">
       <c r="C670" s="17"/>
       <c r="D670" s="17"/>
     </row>
-    <row r="671" spans="3:4" ht="14.4">
+    <row r="671" spans="3:4">
       <c r="C671" s="17"/>
       <c r="D671" s="17"/>
     </row>
-    <row r="672" spans="3:4" ht="14.4">
+    <row r="672" spans="3:4">
       <c r="C672" s="17"/>
       <c r="D672" s="17"/>
     </row>
-    <row r="673" spans="3:4" ht="14.4">
+    <row r="673" spans="3:4">
       <c r="C673" s="17"/>
       <c r="D673" s="17"/>
     </row>
-    <row r="674" spans="3:4" ht="14.4">
+    <row r="674" spans="3:4">
       <c r="C674" s="17"/>
       <c r="D674" s="17"/>
     </row>
-    <row r="675" spans="3:4" ht="14.4">
+    <row r="675" spans="3:4">
       <c r="C675" s="17"/>
       <c r="D675" s="17"/>
     </row>
-    <row r="676" spans="3:4" ht="14.4">
+    <row r="676" spans="3:4">
       <c r="C676" s="17"/>
       <c r="D676" s="17"/>
     </row>
-    <row r="677" spans="3:4" ht="14.4">
+    <row r="677" spans="3:4">
       <c r="C677" s="17"/>
       <c r="D677" s="17"/>
     </row>
-    <row r="678" spans="3:4" ht="14.4">
+    <row r="678" spans="3:4">
       <c r="C678" s="17"/>
       <c r="D678" s="17"/>
     </row>
-    <row r="679" spans="3:4" ht="14.4">
+    <row r="679" spans="3:4">
       <c r="C679" s="17"/>
       <c r="D679" s="17"/>
     </row>
-    <row r="680" spans="3:4" ht="14.4">
+    <row r="680" spans="3:4">
       <c r="C680" s="17"/>
       <c r="D680" s="17"/>
     </row>
-    <row r="681" spans="3:4" ht="14.4">
+    <row r="681" spans="3:4">
       <c r="C681" s="17"/>
       <c r="D681" s="17"/>
     </row>
-    <row r="682" spans="3:4" ht="14.4">
+    <row r="682" spans="3:4">
       <c r="C682" s="17"/>
       <c r="D682" s="17"/>
     </row>
-    <row r="683" spans="3:4" ht="14.4">
+    <row r="683" spans="3:4">
       <c r="C683" s="17"/>
       <c r="D683" s="17"/>
     </row>
-    <row r="684" spans="3:4" ht="14.4">
+    <row r="684" spans="3:4">
       <c r="C684" s="17"/>
       <c r="D684" s="17"/>
     </row>
-    <row r="685" spans="3:4" ht="14.4">
+    <row r="685" spans="3:4">
       <c r="C685" s="17"/>
       <c r="D685" s="17"/>
     </row>
-    <row r="686" spans="3:4" ht="14.4">
+    <row r="686" spans="3:4">
       <c r="C686" s="17"/>
       <c r="D686" s="17"/>
     </row>
-    <row r="687" spans="3:4" ht="14.4">
+    <row r="687" spans="3:4">
       <c r="C687" s="17"/>
       <c r="D687" s="17"/>
     </row>
-    <row r="688" spans="3:4" ht="14.4">
+    <row r="688" spans="3:4">
       <c r="C688" s="17"/>
       <c r="D688" s="17"/>
     </row>
-    <row r="689" spans="3:4" ht="14.4">
+    <row r="689" spans="3:4">
       <c r="C689" s="17"/>
       <c r="D689" s="17"/>
     </row>
-    <row r="690" spans="3:4" ht="14.4">
+    <row r="690" spans="3:4">
       <c r="C690" s="17"/>
       <c r="D690" s="17"/>
     </row>
-    <row r="691" spans="3:4" ht="14.4">
+    <row r="691" spans="3:4">
       <c r="C691" s="17"/>
       <c r="D691" s="17"/>
     </row>
-    <row r="692" spans="3:4" ht="14.4">
+    <row r="692" spans="3:4">
       <c r="C692" s="17"/>
       <c r="D692" s="17"/>
     </row>
-    <row r="693" spans="3:4" ht="14.4">
+    <row r="693" spans="3:4">
       <c r="C693" s="17"/>
       <c r="D693" s="17"/>
     </row>
-    <row r="694" spans="3:4" ht="14.4">
+    <row r="694" spans="3:4">
       <c r="C694" s="17"/>
       <c r="D694" s="17"/>
     </row>
-    <row r="695" spans="3:4" ht="14.4">
+    <row r="695" spans="3:4">
       <c r="C695" s="17"/>
       <c r="D695" s="17"/>
     </row>
-    <row r="696" spans="3:4" ht="14.4">
+    <row r="696" spans="3:4">
       <c r="C696" s="17"/>
       <c r="D696" s="17"/>
     </row>
-    <row r="697" spans="3:4" ht="14.4">
+    <row r="697" spans="3:4">
       <c r="C697" s="17"/>
       <c r="D697" s="17"/>
     </row>
-    <row r="698" spans="3:4" ht="14.4">
+    <row r="698" spans="3:4">
       <c r="C698" s="17"/>
       <c r="D698" s="17"/>
     </row>
-    <row r="699" spans="3:4" ht="14.4">
+    <row r="699" spans="3:4">
       <c r="C699" s="17"/>
       <c r="D699" s="17"/>
     </row>
-    <row r="700" spans="3:4" ht="14.4">
+    <row r="700" spans="3:4">
       <c r="C700" s="17"/>
       <c r="D700" s="17"/>
     </row>
-    <row r="701" spans="3:4" ht="14.4">
+    <row r="701" spans="3:4">
       <c r="C701" s="17"/>
       <c r="D701" s="17"/>
     </row>
-    <row r="702" spans="3:4" ht="14.4">
+    <row r="702" spans="3:4">
       <c r="C702" s="17"/>
       <c r="D702" s="17"/>
     </row>
-    <row r="703" spans="3:4" ht="14.4">
+    <row r="703" spans="3:4">
       <c r="C703" s="17"/>
       <c r="D703" s="17"/>
     </row>
-    <row r="704" spans="3:4" ht="14.4">
+    <row r="704" spans="3:4">
       <c r="C704" s="17"/>
       <c r="D704" s="17"/>
     </row>
-    <row r="705" spans="3:4" ht="14.4">
+    <row r="705" spans="3:4">
       <c r="C705" s="17"/>
       <c r="D705" s="17"/>
     </row>
-    <row r="706" spans="3:4" ht="14.4">
+    <row r="706" spans="3:4">
       <c r="C706" s="17"/>
       <c r="D706" s="17"/>
     </row>
-    <row r="707" spans="3:4" ht="14.4">
+    <row r="707" spans="3:4">
       <c r="C707" s="17"/>
       <c r="D707" s="17"/>
     </row>
-    <row r="708" spans="3:4" ht="14.4">
+    <row r="708" spans="3:4">
       <c r="C708" s="17"/>
       <c r="D708" s="17"/>
     </row>
-    <row r="709" spans="3:4" ht="14.4">
+    <row r="709" spans="3:4">
       <c r="C709" s="17"/>
       <c r="D709" s="17"/>
     </row>
-    <row r="710" spans="3:4" ht="14.4">
+    <row r="710" spans="3:4">
       <c r="C710" s="17"/>
       <c r="D710" s="17"/>
     </row>
-    <row r="711" spans="3:4" ht="14.4">
+    <row r="711" spans="3:4">
       <c r="C711" s="17"/>
       <c r="D711" s="17"/>
     </row>
-    <row r="712" spans="3:4" ht="14.4">
+    <row r="712" spans="3:4">
       <c r="C712" s="17"/>
       <c r="D712" s="17"/>
     </row>
-    <row r="713" spans="3:4" ht="14.4">
+    <row r="713" spans="3:4">
       <c r="C713" s="17"/>
       <c r="D713" s="17"/>
     </row>
-    <row r="714" spans="3:4" ht="14.4">
+    <row r="714" spans="3:4">
       <c r="C714" s="17"/>
       <c r="D714" s="17"/>
     </row>
-    <row r="715" spans="3:4" ht="14.4">
+    <row r="715" spans="3:4">
       <c r="C715" s="17"/>
       <c r="D715" s="17"/>
     </row>
-    <row r="716" spans="3:4" ht="14.4">
+    <row r="716" spans="3:4">
       <c r="C716" s="17"/>
       <c r="D716" s="17"/>
     </row>
-    <row r="717" spans="3:4" ht="14.4">
+    <row r="717" spans="3:4">
       <c r="C717" s="17"/>
       <c r="D717" s="17"/>
     </row>
-    <row r="718" spans="3:4" ht="14.4">
+    <row r="718" spans="3:4">
       <c r="C718" s="17"/>
       <c r="D718" s="17"/>
     </row>
-    <row r="719" spans="3:4" ht="14.4">
+    <row r="719" spans="3:4">
       <c r="C719" s="17"/>
       <c r="D719" s="17"/>
     </row>
-    <row r="720" spans="3:4" ht="14.4">
+    <row r="720" spans="3:4">
       <c r="C720" s="17"/>
       <c r="D720" s="17"/>
     </row>
-    <row r="721" spans="3:4" ht="14.4">
+    <row r="721" spans="3:4">
       <c r="C721" s="17"/>
       <c r="D721" s="17"/>
     </row>
-    <row r="722" spans="3:4" ht="14.4">
+    <row r="722" spans="3:4">
       <c r="C722" s="17"/>
       <c r="D722" s="17"/>
     </row>
-    <row r="723" spans="3:4" ht="14.4">
+    <row r="723" spans="3:4">
       <c r="C723" s="17"/>
       <c r="D723" s="17"/>
     </row>
-    <row r="724" spans="3:4" ht="14.4">
+    <row r="724" spans="3:4">
       <c r="C724" s="17"/>
       <c r="D724" s="17"/>
     </row>
-    <row r="725" spans="3:4" ht="14.4">
+    <row r="725" spans="3:4">
       <c r="C725" s="17"/>
       <c r="D725" s="17"/>
     </row>
-    <row r="726" spans="3:4" ht="14.4">
+    <row r="726" spans="3:4">
       <c r="C726" s="17"/>
       <c r="D726" s="17"/>
     </row>
-    <row r="727" spans="3:4" ht="14.4">
+    <row r="727" spans="3:4">
       <c r="C727" s="17"/>
       <c r="D727" s="17"/>
     </row>
-    <row r="728" spans="3:4" ht="14.4">
+    <row r="728" spans="3:4">
       <c r="C728" s="17"/>
       <c r="D728" s="17"/>
     </row>
-    <row r="729" spans="3:4" ht="14.4">
+    <row r="729" spans="3:4">
       <c r="C729" s="17"/>
       <c r="D729" s="17"/>
     </row>
-    <row r="730" spans="3:4" ht="14.4">
+    <row r="730" spans="3:4">
       <c r="C730" s="17"/>
       <c r="D730" s="17"/>
     </row>
-    <row r="731" spans="3:4" ht="14.4">
+    <row r="731" spans="3:4">
       <c r="C731" s="17"/>
       <c r="D731" s="17"/>
     </row>
-    <row r="732" spans="3:4" ht="14.4">
+    <row r="732" spans="3:4">
       <c r="C732" s="17"/>
       <c r="D732" s="17"/>
     </row>
-    <row r="733" spans="3:4" ht="14.4">
+    <row r="733" spans="3:4">
       <c r="C733" s="17"/>
       <c r="D733" s="17"/>
     </row>
-    <row r="734" spans="3:4" ht="14.4">
+    <row r="734" spans="3:4">
       <c r="C734" s="17"/>
       <c r="D734" s="17"/>
     </row>
-    <row r="735" spans="3:4" ht="14.4">
+    <row r="735" spans="3:4">
       <c r="C735" s="17"/>
       <c r="D735" s="17"/>
     </row>
-    <row r="736" spans="3:4" ht="14.4">
+    <row r="736" spans="3:4">
       <c r="C736" s="17"/>
       <c r="D736" s="17"/>
     </row>
-    <row r="737" spans="3:4" ht="14.4">
+    <row r="737" spans="3:4">
       <c r="C737" s="17"/>
       <c r="D737" s="17"/>
     </row>
-    <row r="738" spans="3:4" ht="14.4">
+    <row r="738" spans="3:4">
       <c r="C738" s="17"/>
       <c r="D738" s="17"/>
     </row>
-    <row r="739" spans="3:4" ht="14.4">
+    <row r="739" spans="3:4">
       <c r="C739" s="17"/>
       <c r="D739" s="17"/>
     </row>
-    <row r="740" spans="3:4" ht="14.4">
+    <row r="740" spans="3:4">
       <c r="C740" s="17"/>
       <c r="D740" s="17"/>
     </row>
-    <row r="741" spans="3:4" ht="14.4">
+    <row r="741" spans="3:4">
       <c r="C741" s="17"/>
       <c r="D741" s="17"/>
     </row>
-    <row r="742" spans="3:4" ht="14.4">
+    <row r="742" spans="3:4">
       <c r="C742" s="17"/>
       <c r="D742" s="17"/>
     </row>
-    <row r="743" spans="3:4" ht="14.4">
+    <row r="743" spans="3:4">
       <c r="C743" s="17"/>
       <c r="D743" s="17"/>
     </row>
-    <row r="744" spans="3:4" ht="14.4">
+    <row r="744" spans="3:4">
       <c r="C744" s="17"/>
       <c r="D744" s="17"/>
     </row>
-    <row r="745" spans="3:4" ht="14.4">
+    <row r="745" spans="3:4">
       <c r="C745" s="17"/>
       <c r="D745" s="17"/>
     </row>
-    <row r="746" spans="3:4" ht="14.4">
+    <row r="746" spans="3:4">
       <c r="C746" s="17"/>
       <c r="D746" s="17"/>
     </row>
-    <row r="747" spans="3:4" ht="14.4">
+    <row r="747" spans="3:4">
       <c r="C747" s="17"/>
       <c r="D747" s="17"/>
     </row>
-    <row r="748" spans="3:4" ht="14.4">
+    <row r="748" spans="3:4">
       <c r="C748" s="17"/>
       <c r="D748" s="17"/>
     </row>
-    <row r="749" spans="3:4" ht="14.4">
+    <row r="749" spans="3:4">
       <c r="C749" s="17"/>
       <c r="D749" s="17"/>
     </row>
-    <row r="750" spans="3:4" ht="14.4">
+    <row r="750" spans="3:4">
       <c r="C750" s="17"/>
       <c r="D750" s="17"/>
     </row>
-    <row r="751" spans="3:4" ht="14.4">
+    <row r="751" spans="3:4">
       <c r="C751" s="17"/>
       <c r="D751" s="17"/>
     </row>
-    <row r="752" spans="3:4" ht="14.4">
+    <row r="752" spans="3:4">
       <c r="C752" s="17"/>
       <c r="D752" s="17"/>
     </row>
-    <row r="753" spans="3:4" ht="14.4">
+    <row r="753" spans="3:4">
       <c r="C753" s="17"/>
       <c r="D753" s="17"/>
     </row>
-    <row r="754" spans="3:4" ht="14.4">
+    <row r="754" spans="3:4">
       <c r="C754" s="17"/>
       <c r="D754" s="17"/>
     </row>
-    <row r="755" spans="3:4" ht="14.4">
+    <row r="755" spans="3:4">
       <c r="C755" s="17"/>
       <c r="D755" s="17"/>
     </row>
-    <row r="756" spans="3:4" ht="14.4">
+    <row r="756" spans="3:4">
       <c r="C756" s="17"/>
       <c r="D756" s="17"/>
     </row>
-    <row r="757" spans="3:4" ht="14.4">
+    <row r="757" spans="3:4">
       <c r="C757" s="17"/>
       <c r="D757" s="17"/>
     </row>
-    <row r="758" spans="3:4" ht="14.4">
+    <row r="758" spans="3:4">
       <c r="C758" s="17"/>
       <c r="D758" s="17"/>
     </row>
-    <row r="759" spans="3:4" ht="14.4">
+    <row r="759" spans="3:4">
       <c r="C759" s="17"/>
       <c r="D759" s="17"/>
     </row>
-    <row r="760" spans="3:4" ht="14.4">
+    <row r="760" spans="3:4">
       <c r="C760" s="17"/>
       <c r="D760" s="17"/>
     </row>
-    <row r="761" spans="3:4" ht="14.4">
+    <row r="761" spans="3:4">
       <c r="C761" s="17"/>
       <c r="D761" s="17"/>
     </row>
-    <row r="762" spans="3:4" ht="14.4">
+    <row r="762" spans="3:4">
       <c r="C762" s="17"/>
       <c r="D762" s="17"/>
     </row>
-    <row r="763" spans="3:4" ht="14.4">
+    <row r="763" spans="3:4">
       <c r="C763" s="17"/>
       <c r="D763" s="17"/>
     </row>
-    <row r="764" spans="3:4" ht="14.4">
+    <row r="764" spans="3:4">
       <c r="C764" s="17"/>
       <c r="D764" s="17"/>
     </row>
-    <row r="765" spans="3:4" ht="14.4">
+    <row r="765" spans="3:4">
       <c r="C765" s="17"/>
       <c r="D765" s="17"/>
     </row>
-    <row r="766" spans="3:4" ht="14.4">
+    <row r="766" spans="3:4">
       <c r="C766" s="17"/>
       <c r="D766" s="17"/>
     </row>
-    <row r="767" spans="3:4" ht="14.4">
+    <row r="767" spans="3:4">
       <c r="C767" s="17"/>
       <c r="D767" s="17"/>
     </row>
-    <row r="768" spans="3:4" ht="14.4">
+    <row r="768" spans="3:4">
       <c r="C768" s="17"/>
       <c r="D768" s="17"/>
     </row>
-    <row r="769" spans="3:4" ht="14.4">
+    <row r="769" spans="3:4">
       <c r="C769" s="17"/>
       <c r="D769" s="17"/>
     </row>
-    <row r="770" spans="3:4" ht="14.4">
+    <row r="770" spans="3:4">
       <c r="C770" s="17"/>
       <c r="D770" s="17"/>
     </row>
-    <row r="771" spans="3:4" ht="14.4">
+    <row r="771" spans="3:4">
       <c r="C771" s="17"/>
       <c r="D771" s="17"/>
     </row>
-    <row r="772" spans="3:4" ht="14.4">
+    <row r="772" spans="3:4">
       <c r="C772" s="17"/>
       <c r="D772" s="17"/>
     </row>
-    <row r="773" spans="3:4" ht="14.4">
+    <row r="773" spans="3:4">
       <c r="C773" s="17"/>
       <c r="D773" s="17"/>
     </row>
-    <row r="774" spans="3:4" ht="14.4">
+    <row r="774" spans="3:4">
       <c r="C774" s="17"/>
       <c r="D774" s="17"/>
     </row>
-    <row r="775" spans="3:4" ht="14.4">
+    <row r="775" spans="3:4">
       <c r="C775" s="17"/>
       <c r="D775" s="17"/>
     </row>
-    <row r="776" spans="3:4" ht="14.4">
+    <row r="776" spans="3:4">
       <c r="C776" s="17"/>
       <c r="D776" s="17"/>
     </row>
-    <row r="777" spans="3:4" ht="14.4">
+    <row r="777" spans="3:4">
       <c r="C777" s="17"/>
       <c r="D777" s="17"/>
     </row>
-    <row r="778" spans="3:4" ht="14.4">
+    <row r="778" spans="3:4">
       <c r="C778" s="17"/>
       <c r="D778" s="17"/>
     </row>
-    <row r="779" spans="3:4" ht="14.4">
+    <row r="779" spans="3:4">
       <c r="C779" s="17"/>
       <c r="D779" s="17"/>
     </row>
-    <row r="780" spans="3:4" ht="14.4">
+    <row r="780" spans="3:4">
       <c r="C780" s="17"/>
       <c r="D780" s="17"/>
     </row>
-    <row r="781" spans="3:4" ht="14.4">
+    <row r="781" spans="3:4">
       <c r="C781" s="17"/>
       <c r="D781" s="17"/>
     </row>
-    <row r="782" spans="3:4" ht="14.4">
+    <row r="782" spans="3:4">
       <c r="C782" s="17"/>
       <c r="D782" s="17"/>
     </row>
-    <row r="783" spans="3:4" ht="14.4">
+    <row r="783" spans="3:4">
       <c r="C783" s="17"/>
       <c r="D783" s="17"/>
     </row>
-    <row r="784" spans="3:4" ht="14.4">
+    <row r="784" spans="3:4">
       <c r="C784" s="17"/>
       <c r="D784" s="17"/>
     </row>
-    <row r="785" spans="3:4" ht="14.4">
+    <row r="785" spans="3:4">
       <c r="C785" s="17"/>
       <c r="D785" s="17"/>
     </row>
-    <row r="786" spans="3:4" ht="14.4">
+    <row r="786" spans="3:4">
       <c r="C786" s="17"/>
       <c r="D786" s="17"/>
     </row>
-    <row r="787" spans="3:4" ht="14.4">
+    <row r="787" spans="3:4">
       <c r="C787" s="17"/>
       <c r="D787" s="17"/>
     </row>
-    <row r="788" spans="3:4" ht="14.4">
+    <row r="788" spans="3:4">
       <c r="C788" s="17"/>
       <c r="D788" s="17"/>
     </row>
-    <row r="789" spans="3:4" ht="14.4">
+    <row r="789" spans="3:4">
       <c r="C789" s="17"/>
       <c r="D789" s="17"/>
     </row>
-    <row r="790" spans="3:4" ht="14.4">
+    <row r="790" spans="3:4">
       <c r="C790" s="17"/>
       <c r="D790" s="17"/>
     </row>
-    <row r="791" spans="3:4" ht="14.4">
+    <row r="791" spans="3:4">
       <c r="C791" s="17"/>
       <c r="D791" s="17"/>
     </row>
-    <row r="792" spans="3:4" ht="14.4">
+    <row r="792" spans="3:4">
       <c r="C792" s="17"/>
       <c r="D792" s="17"/>
     </row>
-    <row r="793" spans="3:4" ht="14.4">
+    <row r="793" spans="3:4">
       <c r="C793" s="17"/>
       <c r="D793" s="17"/>
     </row>
-    <row r="794" spans="3:4" ht="14.4">
+    <row r="794" spans="3:4">
       <c r="C794" s="17"/>
       <c r="D794" s="17"/>
     </row>
-    <row r="795" spans="3:4" ht="14.4">
+    <row r="795" spans="3:4">
       <c r="C795" s="17"/>
       <c r="D795" s="17"/>
     </row>
-    <row r="796" spans="3:4" ht="14.4">
+    <row r="796" spans="3:4">
       <c r="C796" s="17"/>
       <c r="D796" s="17"/>
     </row>
-    <row r="797" spans="3:4" ht="14.4">
+    <row r="797" spans="3:4">
       <c r="C797" s="17"/>
       <c r="D797" s="17"/>
     </row>
-    <row r="798" spans="3:4" ht="14.4">
+    <row r="798" spans="3:4">
       <c r="C798" s="17"/>
       <c r="D798" s="17"/>
     </row>
-    <row r="799" spans="3:4" ht="14.4">
+    <row r="799" spans="3:4">
       <c r="C799" s="17"/>
       <c r="D799" s="17"/>
     </row>
-    <row r="800" spans="3:4" ht="14.4">
+    <row r="800" spans="3:4">
       <c r="C800" s="17"/>
       <c r="D800" s="17"/>
     </row>
-    <row r="801" spans="3:4" ht="14.4">
+    <row r="801" spans="3:4">
       <c r="C801" s="17"/>
       <c r="D801" s="17"/>
     </row>
-    <row r="802" spans="3:4" ht="14.4">
+    <row r="802" spans="3:4">
       <c r="C802" s="17"/>
       <c r="D802" s="17"/>
     </row>
-    <row r="803" spans="3:4" ht="14.4">
+    <row r="803" spans="3:4">
       <c r="C803" s="17"/>
       <c r="D803" s="17"/>
     </row>
-    <row r="804" spans="3:4" ht="14.4">
+    <row r="804" spans="3:4">
       <c r="C804" s="17"/>
       <c r="D804" s="17"/>
     </row>
-    <row r="805" spans="3:4" ht="14.4">
+    <row r="805" spans="3:4">
       <c r="C805" s="17"/>
       <c r="D805" s="17"/>
     </row>
-    <row r="806" spans="3:4" ht="14.4">
+    <row r="806" spans="3:4">
       <c r="C806" s="17"/>
       <c r="D806" s="17"/>
     </row>
-    <row r="807" spans="3:4" ht="14.4">
+    <row r="807" spans="3:4">
       <c r="C807" s="17"/>
       <c r="D807" s="17"/>
     </row>
-    <row r="808" spans="3:4" ht="14.4">
+    <row r="808" spans="3:4">
       <c r="C808" s="17"/>
       <c r="D808" s="17"/>
     </row>
-    <row r="809" spans="3:4" ht="14.4">
+    <row r="809" spans="3:4">
       <c r="C809" s="17"/>
       <c r="D809" s="17"/>
     </row>
-    <row r="810" spans="3:4" ht="14.4">
+    <row r="810" spans="3:4">
       <c r="C810" s="17"/>
       <c r="D810" s="17"/>
     </row>
-    <row r="811" spans="3:4" ht="14.4">
+    <row r="811" spans="3:4">
       <c r="C811" s="17"/>
       <c r="D811" s="17"/>
     </row>
-    <row r="812" spans="3:4" ht="14.4">
+    <row r="812" spans="3:4">
       <c r="C812" s="17"/>
       <c r="D812" s="17"/>
     </row>
-    <row r="813" spans="3:4" ht="14.4">
+    <row r="813" spans="3:4">
       <c r="C813" s="17"/>
       <c r="D813" s="17"/>
     </row>
-    <row r="814" spans="3:4" ht="14.4">
+    <row r="814" spans="3:4">
       <c r="C814" s="17"/>
       <c r="D814" s="17"/>
     </row>
-    <row r="815" spans="3:4" ht="14.4">
+    <row r="815" spans="3:4">
       <c r="C815" s="17"/>
       <c r="D815" s="17"/>
     </row>
-    <row r="816" spans="3:4" ht="14.4">
+    <row r="816" spans="3:4">
       <c r="C816" s="17"/>
       <c r="D816" s="17"/>
     </row>
-    <row r="817" spans="3:4" ht="14.4">
+    <row r="817" spans="3:4">
       <c r="C817" s="17"/>
       <c r="D817" s="17"/>
     </row>
-    <row r="818" spans="3:4" ht="14.4">
+    <row r="818" spans="3:4">
       <c r="C818" s="17"/>
       <c r="D818" s="17"/>
     </row>
-    <row r="819" spans="3:4" ht="14.4">
+    <row r="819" spans="3:4">
       <c r="C819" s="17"/>
       <c r="D819" s="17"/>
     </row>
-    <row r="820" spans="3:4" ht="14.4">
+    <row r="820" spans="3:4">
       <c r="C820" s="17"/>
       <c r="D820" s="17"/>
     </row>
-    <row r="821" spans="3:4" ht="14.4">
+    <row r="821" spans="3:4">
       <c r="C821" s="17"/>
       <c r="D821" s="17"/>
     </row>
-    <row r="822" spans="3:4" ht="14.4">
+    <row r="822" spans="3:4">
       <c r="C822" s="17"/>
       <c r="D822" s="17"/>
     </row>
-    <row r="823" spans="3:4" ht="14.4">
+    <row r="823" spans="3:4">
       <c r="C823" s="17"/>
       <c r="D823" s="17"/>
     </row>
-    <row r="824" spans="3:4" ht="14.4">
+    <row r="824" spans="3:4">
       <c r="C824" s="17"/>
       <c r="D824" s="17"/>
     </row>
-    <row r="825" spans="3:4" ht="14.4">
+    <row r="825" spans="3:4">
       <c r="C825" s="17"/>
       <c r="D825" s="17"/>
     </row>
-    <row r="826" spans="3:4" ht="14.4">
+    <row r="826" spans="3:4">
       <c r="C826" s="17"/>
       <c r="D826" s="17"/>
     </row>
-    <row r="827" spans="3:4" ht="14.4">
+    <row r="827" spans="3:4">
       <c r="C827" s="17"/>
       <c r="D827" s="17"/>
     </row>
-    <row r="828" spans="3:4" ht="14.4">
+    <row r="828" spans="3:4">
       <c r="C828" s="17"/>
       <c r="D828" s="17"/>
     </row>
-    <row r="829" spans="3:4" ht="14.4">
+    <row r="829" spans="3:4">
       <c r="C829" s="17"/>
       <c r="D829" s="17"/>
     </row>
-    <row r="830" spans="3:4" ht="14.4">
+    <row r="830" spans="3:4">
       <c r="C830" s="17"/>
       <c r="D830" s="17"/>
     </row>
-    <row r="831" spans="3:4" ht="14.4">
+    <row r="831" spans="3:4">
       <c r="C831" s="17"/>
       <c r="D831" s="17"/>
     </row>
-    <row r="832" spans="3:4" ht="14.4">
+    <row r="832" spans="3:4">
       <c r="C832" s="17"/>
       <c r="D832" s="17"/>
     </row>
-    <row r="833" spans="3:4" ht="14.4">
+    <row r="833" spans="3:4">
       <c r="C833" s="17"/>
       <c r="D833" s="17"/>
     </row>
-    <row r="834" spans="3:4" ht="14.4">
+    <row r="834" spans="3:4">
       <c r="C834" s="17"/>
       <c r="D834" s="17"/>
     </row>
-    <row r="835" spans="3:4" ht="14.4">
+    <row r="835" spans="3:4">
       <c r="C835" s="17"/>
       <c r="D835" s="17"/>
     </row>
-    <row r="836" spans="3:4" ht="14.4">
+    <row r="836" spans="3:4">
       <c r="C836" s="17"/>
       <c r="D836" s="17"/>
     </row>
-    <row r="837" spans="3:4" ht="14.4">
+    <row r="837" spans="3:4">
       <c r="C837" s="17"/>
       <c r="D837" s="17"/>
     </row>
-    <row r="838" spans="3:4" ht="14.4">
+    <row r="838" spans="3:4">
       <c r="C838" s="17"/>
       <c r="D838" s="17"/>
     </row>
-    <row r="839" spans="3:4" ht="14.4">
+    <row r="839" spans="3:4">
       <c r="C839" s="17"/>
       <c r="D839" s="17"/>
     </row>
-    <row r="840" spans="3:4" ht="14.4">
+    <row r="840" spans="3:4">
       <c r="C840" s="17"/>
       <c r="D840" s="17"/>
     </row>
-    <row r="841" spans="3:4" ht="14.4">
+    <row r="841" spans="3:4">
       <c r="C841" s="17"/>
       <c r="D841" s="17"/>
     </row>
-    <row r="842" spans="3:4" ht="14.4">
+    <row r="842" spans="3:4">
       <c r="C842" s="17"/>
       <c r="D842" s="17"/>
     </row>
-    <row r="843" spans="3:4" ht="14.4">
+    <row r="843" spans="3:4">
       <c r="C843" s="17"/>
       <c r="D843" s="17"/>
     </row>
-    <row r="844" spans="3:4" ht="14.4">
+    <row r="844" spans="3:4">
       <c r="C844" s="17"/>
       <c r="D844" s="17"/>
     </row>
-    <row r="845" spans="3:4" ht="14.4">
+    <row r="845" spans="3:4">
       <c r="C845" s="17"/>
       <c r="D845" s="17"/>
     </row>
-    <row r="846" spans="3:4" ht="14.4">
+    <row r="846" spans="3:4">
       <c r="C846" s="17"/>
       <c r="D846" s="17"/>
     </row>
-    <row r="847" spans="3:4" ht="14.4">
+    <row r="847" spans="3:4">
       <c r="C847" s="17"/>
       <c r="D847" s="17"/>
     </row>
-    <row r="848" spans="3:4" ht="14.4">
+    <row r="848" spans="3:4">
       <c r="C848" s="17"/>
       <c r="D848" s="17"/>
     </row>
-    <row r="849" spans="3:4" ht="14.4">
+    <row r="849" spans="3:4">
       <c r="C849" s="17"/>
       <c r="D849" s="17"/>
     </row>
-    <row r="850" spans="3:4" ht="14.4">
+    <row r="850" spans="3:4">
       <c r="C850" s="17"/>
       <c r="D850" s="17"/>
     </row>
-    <row r="851" spans="3:4" ht="14.4">
+    <row r="851" spans="3:4">
       <c r="C851" s="17"/>
       <c r="D851" s="17"/>
     </row>
-    <row r="852" spans="3:4" ht="14.4">
+    <row r="852" spans="3:4">
       <c r="C852" s="17"/>
       <c r="D852" s="17"/>
     </row>
-    <row r="853" spans="3:4" ht="14.4">
+    <row r="853" spans="3:4">
       <c r="C853" s="17"/>
       <c r="D853" s="17"/>
     </row>
-    <row r="854" spans="3:4" ht="14.4">
+    <row r="854" spans="3:4">
       <c r="C854" s="17"/>
       <c r="D854" s="17"/>
     </row>
-    <row r="855" spans="3:4" ht="14.4">
+    <row r="855" spans="3:4">
       <c r="C855" s="17"/>
       <c r="D855" s="17"/>
     </row>
-    <row r="856" spans="3:4" ht="14.4">
+    <row r="856" spans="3:4">
       <c r="C856" s="17"/>
       <c r="D856" s="17"/>
     </row>
-    <row r="857" spans="3:4" ht="14.4">
+    <row r="857" spans="3:4">
       <c r="C857" s="17"/>
       <c r="D857" s="17"/>
     </row>
-    <row r="858" spans="3:4" ht="14.4">
+    <row r="858" spans="3:4">
       <c r="C858" s="17"/>
       <c r="D858" s="17"/>
     </row>
-    <row r="859" spans="3:4" ht="14.4">
+    <row r="859" spans="3:4">
       <c r="C859" s="17"/>
       <c r="D859" s="17"/>
     </row>
-    <row r="860" spans="3:4" ht="14.4">
+    <row r="860" spans="3:4">
       <c r="C860" s="17"/>
       <c r="D860" s="17"/>
     </row>
-    <row r="861" spans="3:4" ht="14.4">
+    <row r="861" spans="3:4">
       <c r="C861" s="17"/>
       <c r="D861" s="17"/>
     </row>
-    <row r="862" spans="3:4" ht="14.4">
+    <row r="862" spans="3:4">
       <c r="C862" s="17"/>
       <c r="D862" s="17"/>
     </row>
-    <row r="863" spans="3:4" ht="14.4">
+    <row r="863" spans="3:4">
       <c r="C863" s="17"/>
       <c r="D863" s="17"/>
     </row>
-    <row r="864" spans="3:4" ht="14.4">
+    <row r="864" spans="3:4">
       <c r="C864" s="17"/>
       <c r="D864" s="17"/>
     </row>
-    <row r="865" spans="3:4" ht="14.4">
+    <row r="865" spans="3:4">
       <c r="C865" s="17"/>
       <c r="D865" s="17"/>
     </row>
-    <row r="866" spans="3:4" ht="14.4">
+    <row r="866" spans="3:4">
       <c r="C866" s="17"/>
       <c r="D866" s="17"/>
     </row>
-    <row r="867" spans="3:4" ht="14.4">
+    <row r="867" spans="3:4">
       <c r="C867" s="17"/>
       <c r="D867" s="17"/>
     </row>
-    <row r="868" spans="3:4" ht="14.4">
+    <row r="868" spans="3:4">
       <c r="C868" s="17"/>
       <c r="D868" s="17"/>
     </row>
-    <row r="869" spans="3:4" ht="14.4">
+    <row r="869" spans="3:4">
       <c r="C869" s="17"/>
       <c r="D869" s="17"/>
     </row>
-    <row r="870" spans="3:4" ht="14.4">
+    <row r="870" spans="3:4">
       <c r="C870" s="17"/>
       <c r="D870" s="17"/>
     </row>
-    <row r="871" spans="3:4" ht="14.4">
+    <row r="871" spans="3:4">
       <c r="C871" s="17"/>
       <c r="D871" s="17"/>
     </row>
-    <row r="872" spans="3:4" ht="14.4">
+    <row r="872" spans="3:4">
       <c r="C872" s="17"/>
       <c r="D872" s="17"/>
     </row>
-    <row r="873" spans="3:4" ht="14.4">
+    <row r="873" spans="3:4">
       <c r="C873" s="17"/>
       <c r="D873" s="17"/>
     </row>
-    <row r="874" spans="3:4" ht="14.4">
+    <row r="874" spans="3:4">
       <c r="C874" s="17"/>
       <c r="D874" s="17"/>
     </row>
-    <row r="875" spans="3:4" ht="14.4">
+    <row r="875" spans="3:4">
       <c r="C875" s="17"/>
       <c r="D875" s="17"/>
     </row>
-    <row r="876" spans="3:4" ht="14.4">
+    <row r="876" spans="3:4">
       <c r="C876" s="17"/>
       <c r="D876" s="17"/>
     </row>
-    <row r="877" spans="3:4" ht="14.4">
+    <row r="877" spans="3:4">
       <c r="C877" s="17"/>
       <c r="D877" s="17"/>
     </row>
-    <row r="878" spans="3:4" ht="14.4">
+    <row r="878" spans="3:4">
       <c r="C878" s="17"/>
       <c r="D878" s="17"/>
     </row>
-    <row r="879" spans="3:4" ht="14.4">
+    <row r="879" spans="3:4">
       <c r="C879" s="17"/>
       <c r="D879" s="17"/>
     </row>
-    <row r="880" spans="3:4" ht="14.4">
+    <row r="880" spans="3:4">
       <c r="C880" s="17"/>
       <c r="D880" s="17"/>
     </row>
-    <row r="881" spans="3:4" ht="14.4">
+    <row r="881" spans="3:4">
       <c r="C881" s="17"/>
       <c r="D881" s="17"/>
     </row>
-    <row r="882" spans="3:4" ht="14.4">
+    <row r="882" spans="3:4">
       <c r="C882" s="17"/>
       <c r="D882" s="17"/>
     </row>
-    <row r="883" spans="3:4" ht="14.4">
+    <row r="883" spans="3:4">
       <c r="C883" s="17"/>
       <c r="D883" s="17"/>
     </row>
-    <row r="884" spans="3:4" ht="14.4">
+    <row r="884" spans="3:4">
       <c r="C884" s="17"/>
       <c r="D884" s="17"/>
     </row>
-    <row r="885" spans="3:4" ht="14.4">
+    <row r="885" spans="3:4">
       <c r="C885" s="17"/>
       <c r="D885" s="17"/>
     </row>
-    <row r="886" spans="3:4" ht="14.4">
+    <row r="886" spans="3:4">
       <c r="C886" s="17"/>
       <c r="D886" s="17"/>
     </row>
-    <row r="887" spans="3:4" ht="14.4">
+    <row r="887" spans="3:4">
       <c r="C887" s="17"/>
       <c r="D887" s="17"/>
     </row>
-    <row r="888" spans="3:4" ht="14.4">
+    <row r="888" spans="3:4">
       <c r="C888" s="17"/>
       <c r="D888" s="17"/>
     </row>
-    <row r="889" spans="3:4" ht="14.4">
+    <row r="889" spans="3:4">
       <c r="C889" s="17"/>
       <c r="D889" s="17"/>
     </row>
-    <row r="890" spans="3:4" ht="14.4">
+    <row r="890" spans="3:4">
       <c r="C890" s="17"/>
       <c r="D890" s="17"/>
     </row>
-    <row r="891" spans="3:4" ht="14.4">
+    <row r="891" spans="3:4">
       <c r="C891" s="17"/>
       <c r="D891" s="17"/>
     </row>
-    <row r="892" spans="3:4" ht="14.4">
+    <row r="892" spans="3:4">
       <c r="C892" s="17"/>
       <c r="D892" s="17"/>
     </row>
-    <row r="893" spans="3:4" ht="14.4">
+    <row r="893" spans="3:4">
       <c r="C893" s="17"/>
       <c r="D893" s="17"/>
     </row>
-    <row r="894" spans="3:4" ht="14.4">
+    <row r="894" spans="3:4">
       <c r="C894" s="17"/>
       <c r="D894" s="17"/>
     </row>
-    <row r="895" spans="3:4" ht="14.4">
+    <row r="895" spans="3:4">
       <c r="C895" s="17"/>
       <c r="D895" s="17"/>
     </row>
-    <row r="896" spans="3:4" ht="14.4">
+    <row r="896" spans="3:4">
       <c r="C896" s="17"/>
       <c r="D896" s="17"/>
     </row>
-    <row r="897" spans="3:4" ht="14.4">
+    <row r="897" spans="3:4">
       <c r="C897" s="17"/>
       <c r="D897" s="17"/>
     </row>
-    <row r="898" spans="3:4" ht="14.4">
+    <row r="898" spans="3:4">
       <c r="C898" s="17"/>
       <c r="D898" s="17"/>
     </row>
-    <row r="899" spans="3:4" ht="14.4">
+    <row r="899" spans="3:4">
       <c r="C899" s="17"/>
       <c r="D899" s="17"/>
     </row>
-    <row r="900" spans="3:4" ht="14.4">
+    <row r="900" spans="3:4">
       <c r="C900" s="17"/>
       <c r="D900" s="17"/>
     </row>
-    <row r="901" spans="3:4" ht="14.4">
+    <row r="901" spans="3:4">
       <c r="C901" s="17"/>
       <c r="D901" s="17"/>
     </row>
-    <row r="902" spans="3:4" ht="14.4">
+    <row r="902" spans="3:4">
       <c r="C902" s="17"/>
       <c r="D902" s="17"/>
     </row>
-    <row r="903" spans="3:4" ht="14.4">
+    <row r="903" spans="3:4">
       <c r="C903" s="17"/>
       <c r="D903" s="17"/>
     </row>
-    <row r="904" spans="3:4" ht="14.4">
+    <row r="904" spans="3:4">
       <c r="C904" s="17"/>
       <c r="D904" s="17"/>
     </row>
-    <row r="905" spans="3:4" ht="14.4">
+    <row r="905" spans="3:4">
       <c r="C905" s="17"/>
       <c r="D905" s="17"/>
     </row>
-    <row r="906" spans="3:4" ht="14.4">
+    <row r="906" spans="3:4">
       <c r="C906" s="17"/>
       <c r="D906" s="17"/>
     </row>
-    <row r="907" spans="3:4" ht="14.4">
+    <row r="907" spans="3:4">
       <c r="C907" s="17"/>
       <c r="D907" s="17"/>
     </row>
-    <row r="908" spans="3:4" ht="14.4">
+    <row r="908" spans="3:4">
       <c r="C908" s="17"/>
       <c r="D908" s="17"/>
     </row>
-    <row r="909" spans="3:4" ht="14.4">
+    <row r="909" spans="3:4">
       <c r="C909" s="17"/>
       <c r="D909" s="17"/>
     </row>
-    <row r="910" spans="3:4" ht="14.4">
+    <row r="910" spans="3:4">
       <c r="C910" s="17"/>
       <c r="D910" s="17"/>
     </row>
-    <row r="911" spans="3:4" ht="14.4">
+    <row r="911" spans="3:4">
       <c r="C911" s="17"/>
       <c r="D911" s="17"/>
     </row>
-    <row r="912" spans="3:4" ht="14.4">
+    <row r="912" spans="3:4">
       <c r="C912" s="17"/>
       <c r="D912" s="17"/>
     </row>
-    <row r="913" spans="3:4" ht="14.4">
+    <row r="913" spans="3:4">
       <c r="C913" s="17"/>
       <c r="D913" s="17"/>
     </row>
-    <row r="914" spans="3:4" ht="14.4">
+    <row r="914" spans="3:4">
       <c r="C914" s="17"/>
       <c r="D914" s="17"/>
     </row>
-    <row r="915" spans="3:4" ht="14.4">
+    <row r="915" spans="3:4">
       <c r="C915" s="17"/>
       <c r="D915" s="17"/>
     </row>
-    <row r="916" spans="3:4" ht="14.4">
+    <row r="916" spans="3:4">
       <c r="C916" s="17"/>
       <c r="D916" s="17"/>
     </row>
-    <row r="917" spans="3:4" ht="14.4">
+    <row r="917" spans="3:4">
       <c r="C917" s="17"/>
       <c r="D917" s="17"/>
     </row>
-    <row r="918" spans="3:4" ht="14.4">
+    <row r="918" spans="3:4">
       <c r="C918" s="17"/>
       <c r="D918" s="17"/>
     </row>
-    <row r="919" spans="3:4" ht="14.4">
+    <row r="919" spans="3:4">
       <c r="C919" s="17"/>
       <c r="D919" s="17"/>
     </row>
-    <row r="920" spans="3:4" ht="14.4">
+    <row r="920" spans="3:4">
       <c r="C920" s="17"/>
       <c r="D920" s="17"/>
     </row>
-    <row r="921" spans="3:4" ht="14.4">
+    <row r="921" spans="3:4">
       <c r="C921" s="17"/>
       <c r="D921" s="17"/>
     </row>
-    <row r="922" spans="3:4" ht="14.4">
+    <row r="922" spans="3:4">
       <c r="C922" s="17"/>
       <c r="D922" s="17"/>
     </row>
-    <row r="923" spans="3:4" ht="14.4">
+    <row r="923" spans="3:4">
       <c r="C923" s="17"/>
       <c r="D923" s="17"/>
     </row>
-    <row r="924" spans="3:4" ht="14.4">
+    <row r="924" spans="3:4">
       <c r="C924" s="17"/>
       <c r="D924" s="17"/>
     </row>
-    <row r="925" spans="3:4" ht="14.4">
+    <row r="925" spans="3:4">
       <c r="C925" s="17"/>
       <c r="D925" s="17"/>
     </row>
-    <row r="926" spans="3:4" ht="14.4">
+    <row r="926" spans="3:4">
       <c r="C926" s="17"/>
       <c r="D926" s="17"/>
     </row>
-    <row r="927" spans="3:4" ht="14.4">
+    <row r="927" spans="3:4">
       <c r="C927" s="17"/>
       <c r="D927" s="17"/>
     </row>
-    <row r="928" spans="3:4" ht="14.4">
+    <row r="928" spans="3:4">
       <c r="C928" s="17"/>
       <c r="D928" s="17"/>
     </row>
-    <row r="929" spans="3:4" ht="14.4">
+    <row r="929" spans="3:4">
       <c r="C929" s="17"/>
       <c r="D929" s="17"/>
     </row>
-    <row r="930" spans="3:4" ht="14.4">
+    <row r="930" spans="3:4">
       <c r="C930" s="17"/>
       <c r="D930" s="17"/>
     </row>
-    <row r="931" spans="3:4" ht="14.4">
+    <row r="931" spans="3:4">
       <c r="C931" s="17"/>
       <c r="D931" s="17"/>
     </row>
-    <row r="932" spans="3:4" ht="14.4">
+    <row r="932" spans="3:4">
       <c r="C932" s="17"/>
       <c r="D932" s="17"/>
     </row>
-    <row r="933" spans="3:4" ht="14.4">
+    <row r="933" spans="3:4">
       <c r="C933" s="17"/>
       <c r="D933" s="17"/>
     </row>
-    <row r="934" spans="3:4" ht="14.4">
+    <row r="934" spans="3:4">
       <c r="C934" s="17"/>
       <c r="D934" s="17"/>
     </row>
-    <row r="935" spans="3:4" ht="14.4">
+    <row r="935" spans="3:4">
       <c r="C935" s="17"/>
       <c r="D935" s="17"/>
     </row>
-    <row r="936" spans="3:4" ht="14.4">
+    <row r="936" spans="3:4">
       <c r="C936" s="17"/>
       <c r="D936" s="17"/>
     </row>
-    <row r="937" spans="3:4" ht="14.4">
+    <row r="937" spans="3:4">
       <c r="C937" s="17"/>
       <c r="D937" s="17"/>
     </row>
-    <row r="938" spans="3:4" ht="14.4">
+    <row r="938" spans="3:4">
       <c r="C938" s="17"/>
       <c r="D938" s="17"/>
     </row>
-    <row r="939" spans="3:4" ht="14.4">
+    <row r="939" spans="3:4">
       <c r="C939" s="17"/>
       <c r="D939" s="17"/>
     </row>
-    <row r="940" spans="3:4" ht="14.4">
+    <row r="940" spans="3:4">
       <c r="C940" s="17"/>
       <c r="D940" s="17"/>
     </row>
-    <row r="941" spans="3:4" ht="14.4">
+    <row r="941" spans="3:4">
       <c r="C941" s="17"/>
       <c r="D941" s="17"/>
     </row>
-    <row r="942" spans="3:4" ht="14.4">
+    <row r="942" spans="3:4">
       <c r="C942" s="17"/>
       <c r="D942" s="17"/>
     </row>
-    <row r="943" spans="3:4" ht="14.4">
+    <row r="943" spans="3:4">
       <c r="C943" s="17"/>
       <c r="D943" s="17"/>
     </row>
-    <row r="944" spans="3:4" ht="14.4">
+    <row r="944" spans="3:4">
       <c r="C944" s="17"/>
       <c r="D944" s="17"/>
     </row>
-    <row r="945" spans="3:4" ht="14.4">
+    <row r="945" spans="3:4">
       <c r="C945" s="17"/>
       <c r="D945" s="17"/>
     </row>
-    <row r="946" spans="3:4" ht="14.4">
+    <row r="946" spans="3:4">
       <c r="C946" s="17"/>
       <c r="D946" s="17"/>
     </row>
-    <row r="947" spans="3:4" ht="14.4">
+    <row r="947" spans="3:4">
       <c r="C947" s="17"/>
       <c r="D947" s="17"/>
     </row>
-    <row r="948" spans="3:4" ht="14.4">
+    <row r="948" spans="3:4">
       <c r="C948" s="17"/>
       <c r="D948" s="17"/>
     </row>
-    <row r="949" spans="3:4" ht="14.4">
+    <row r="949" spans="3:4">
       <c r="C949" s="17"/>
       <c r="D949" s="17"/>
     </row>
-    <row r="950" spans="3:4" ht="14.4">
+    <row r="950" spans="3:4">
       <c r="C950" s="17"/>
       <c r="D950" s="17"/>
     </row>
-    <row r="951" spans="3:4" ht="14.4">
+    <row r="951" spans="3:4">
       <c r="C951" s="17"/>
       <c r="D951" s="17"/>
     </row>
-    <row r="952" spans="3:4" ht="14.4">
+    <row r="952" spans="3:4">
       <c r="C952" s="17"/>
       <c r="D952" s="17"/>
     </row>
-    <row r="953" spans="3:4" ht="14.4">
+    <row r="953" spans="3:4">
       <c r="C953" s="17"/>
       <c r="D953" s="17"/>
     </row>
-    <row r="954" spans="3:4" ht="14.4">
+    <row r="954" spans="3:4">
       <c r="C954" s="17"/>
       <c r="D954" s="17"/>
     </row>
-    <row r="955" spans="3:4" ht="14.4">
+    <row r="955" spans="3:4">
       <c r="C955" s="17"/>
       <c r="D955" s="17"/>
     </row>
-    <row r="956" spans="3:4" ht="14.4">
+    <row r="956" spans="3:4">
       <c r="C956" s="17"/>
       <c r="D956" s="17"/>
     </row>
-    <row r="957" spans="3:4" ht="14.4">
+    <row r="957" spans="3:4">
       <c r="C957" s="17"/>
       <c r="D957" s="17"/>
     </row>
-    <row r="958" spans="3:4" ht="14.4">
+    <row r="958" spans="3:4">
       <c r="C958" s="17"/>
       <c r="D958" s="17"/>
     </row>
-    <row r="959" spans="3:4" ht="14.4">
+    <row r="959" spans="3:4">
       <c r="C959" s="17"/>
       <c r="D959" s="17"/>
     </row>
-    <row r="960" spans="3:4" ht="14.4">
+    <row r="960" spans="3:4">
       <c r="C960" s="17"/>
       <c r="D960" s="17"/>
     </row>
-    <row r="961" spans="3:4" ht="14.4">
+    <row r="961" spans="3:4">
       <c r="C961" s="17"/>
       <c r="D961" s="17"/>
     </row>
-    <row r="962" spans="3:4" ht="14.4">
+    <row r="962" spans="3:4">
       <c r="C962" s="17"/>
       <c r="D962" s="17"/>
     </row>
-    <row r="963" spans="3:4" ht="14.4">
+    <row r="963" spans="3:4">
       <c r="C963" s="17"/>
       <c r="D963" s="17"/>
     </row>
-    <row r="964" spans="3:4" ht="14.4">
+    <row r="964" spans="3:4">
       <c r="C964" s="17"/>
       <c r="D964" s="17"/>
     </row>
-    <row r="965" spans="3:4" ht="14.4">
+    <row r="965" spans="3:4">
       <c r="C965" s="17"/>
       <c r="D965" s="17"/>
     </row>
-    <row r="966" spans="3:4" ht="14.4">
+    <row r="966" spans="3:4">
       <c r="C966" s="17"/>
       <c r="D966" s="17"/>
     </row>
-    <row r="967" spans="3:4" ht="14.4">
+    <row r="967" spans="3:4">
       <c r="C967" s="17"/>
       <c r="D967" s="17"/>
     </row>
-    <row r="968" spans="3:4" ht="14.4">
+    <row r="968" spans="3:4">
       <c r="C968" s="17"/>
       <c r="D968" s="17"/>
     </row>
-    <row r="969" spans="3:4" ht="14.4">
+    <row r="969" spans="3:4">
       <c r="C969" s="17"/>
       <c r="D969" s="17"/>
     </row>
-    <row r="970" spans="3:4" ht="14.4">
+    <row r="970" spans="3:4">
       <c r="C970" s="17"/>
       <c r="D970" s="17"/>
     </row>
-    <row r="971" spans="3:4" ht="14.4">
+    <row r="971" spans="3:4">
       <c r="C971" s="17"/>
       <c r="D971" s="17"/>
     </row>
-    <row r="972" spans="3:4" ht="14.4">
+    <row r="972" spans="3:4">
       <c r="C972" s="17"/>
       <c r="D972" s="17"/>
     </row>
-    <row r="973" spans="3:4" ht="14.4">
+    <row r="973" spans="3:4">
       <c r="C973" s="17"/>
       <c r="D973" s="17"/>
     </row>
-    <row r="974" spans="3:4" ht="14.4">
+    <row r="974" spans="3:4">
       <c r="C974" s="17"/>
       <c r="D974" s="17"/>
     </row>
-    <row r="975" spans="3:4" ht="14.4">
+    <row r="975" spans="3:4">
       <c r="C975" s="17"/>
       <c r="D975" s="17"/>
     </row>
-    <row r="976" spans="3:4" ht="14.4">
+    <row r="976" spans="3:4">
       <c r="C976" s="17"/>
       <c r="D976" s="17"/>
     </row>
-    <row r="977" spans="3:4" ht="14.4">
+    <row r="977" spans="3:4">
       <c r="C977" s="17"/>
       <c r="D977" s="17"/>
     </row>
-    <row r="978" spans="3:4" ht="14.4">
+    <row r="978" spans="3:4">
       <c r="C978" s="17"/>
       <c r="D978" s="17"/>
     </row>
-    <row r="979" spans="3:4" ht="14.4">
+    <row r="979" spans="3:4">
       <c r="C979" s="17"/>
       <c r="D979" s="17"/>
     </row>
-    <row r="980" spans="3:4" ht="14.4">
+    <row r="980" spans="3:4">
       <c r="C980" s="17"/>
       <c r="D980" s="17"/>
     </row>
-    <row r="981" spans="3:4" ht="14.4">
+    <row r="981" spans="3:4">
       <c r="C981" s="17"/>
       <c r="D981" s="17"/>
     </row>
-    <row r="982" spans="3:4" ht="14.4">
+    <row r="982" spans="3:4">
       <c r="C982" s="17"/>
       <c r="D982" s="17"/>
     </row>
-    <row r="983" spans="3:4" ht="14.4">
+    <row r="983" spans="3:4">
       <c r="C983" s="17"/>
       <c r="D983" s="17"/>
     </row>
-    <row r="984" spans="3:4" ht="14.4">
+    <row r="984" spans="3:4">
       <c r="C984" s="17"/>
       <c r="D984" s="17"/>
     </row>
-    <row r="985" spans="3:4" ht="14.4">
+    <row r="985" spans="3:4">
       <c r="C985" s="17"/>
       <c r="D985" s="17"/>
     </row>
-    <row r="986" spans="3:4" ht="14.4">
+    <row r="986" spans="3:4">
       <c r="C986" s="17"/>
       <c r="D986" s="17"/>
     </row>
-    <row r="987" spans="3:4" ht="14.4">
+    <row r="987" spans="3:4">
       <c r="C987" s="17"/>
       <c r="D987" s="17"/>
     </row>
-    <row r="988" spans="3:4" ht="14.4">
+    <row r="988" spans="3:4">
       <c r="C988" s="17"/>
       <c r="D988" s="17"/>
     </row>
-    <row r="989" spans="3:4" ht="14.4">
+    <row r="989" spans="3:4">
       <c r="C989" s="17"/>
       <c r="D989" s="17"/>
     </row>
-    <row r="990" spans="3:4" ht="14.4">
+    <row r="990" spans="3:4">
       <c r="C990" s="17"/>
       <c r="D990" s="17"/>
     </row>
-    <row r="991" spans="3:4" ht="14.4">
+    <row r="991" spans="3:4">
       <c r="C991" s="17"/>
       <c r="D991" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22"/>
+  <phoneticPr fontId="21"/>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="D11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
